--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1763">
   <si>
     <t>en</t>
   </si>
@@ -715,6 +715,9 @@
     <t>Charlie et la chocolaterie</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -1384,6 +1387,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -2662,6 +2668,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -3949,6 +3958,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -4408,6 +4420,9 @@
     <t>Spooky's Jump Scare Mansion (Le manoir de la peur)</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -4531,726 +4546,726 @@
     <t>Summer</t>
   </si>
   <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Surnaturel</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Créature surprise</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Personne surprise</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Marais</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>La fois où je me suis réincarné en Slime</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Les Aventures de Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>L'incroyable cirque numérique</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>L'incroyable monde de Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>L'attachement d'Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Les Garçons</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Le retour du chat</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>La Conjuration</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Le nouveau groove de l'empereur</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Les Pierrafeu</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>La Mouche</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>L'éveil du jardin</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Le bon dinosaure</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Le Grand Détective des Souris</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Les sinistres aventures de Billy et Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Le Bossu de Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Le Géant de Fer</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Le Dernier Gardien</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Le Dernier d'entre nous</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>La Légende de Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Le Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>La Maison de la Chouette</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>La maison des hiboux</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>La princesse et la grenouille</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Le Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>La route de l'Eldorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Massacre à la tronçonneuse</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Les Trois Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Les dossiers Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Ces nuits-là chez Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom et Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Projet Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Trafic</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Feu de circulation</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Panneau de signalisation</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformateurs</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Tête transparente</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Poubelle</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Trésor</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planète Trésor</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Tortue</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Forêt du crépuscule</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V pour Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanille (supprimé)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Bloc de vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Nourriture Vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Casque Vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanille Objet</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Mob Vanille</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Chasseurs de voûtes</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Végétal</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Véhicule</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Villageois</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Villageois (désert)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Villageois (Jungle)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Villageois (Plaines)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Villageois (Savane)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Villageois (Toundra enneigée)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Villageois (Marais)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Villageois (Taïga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtuel</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace et Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>La guerre des mondes</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Nous, les ours</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Nous sommes heureux</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Météo</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Bienvenue à la maison</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Qui est-ce ?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Mise à jour sauvage</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Les ailes du feu</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winnie l'ourson</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Hiver</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World (Monde merveilleux)</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Laine</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Casque de sécurité</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jeune</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Signe du Zodiaque</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanille)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Zootopie</t>
+  </si>
+  <si>
     <t>Summer Drop 2025</t>
   </si>
   <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Surnaturel</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Créature surprise</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Personne surprise</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Marais</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>La fois où je me suis réincarné en Slime</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Les Aventures de Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>L'incroyable cirque numérique</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>L'incroyable monde de Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>L'attachement d'Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Les Garçons</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Le retour du chat</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>La Conjuration</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Le nouveau groove de l'empereur</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Les Pierrafeu</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>La Mouche</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>L'éveil du jardin</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Le bon dinosaure</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Le Grand Détective des Souris</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Les sinistres aventures de Billy et Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Le Bossu de Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Le Géant de Fer</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Le Dernier Gardien</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>Le Dernier d'entre nous</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>La Légende de Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Le Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>La Maison de la Chouette</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>La maison des hiboux</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>La princesse et la grenouille</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Le Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>La route de l'Eldorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Massacre à la tronçonneuse</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Les Trois Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Les dossiers Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Ces nuits-là chez Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom et Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Projet Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Trafic</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Feu de circulation</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Panneau de signalisation</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformateurs</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Tête transparente</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Poubelle</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Trésor</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planète Trésor</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Tortue</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Forêt du crépuscule</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V pour Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanille (supprimé)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Bloc de vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Nourriture Vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Casque Vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanille Objet</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Mob Vanille</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Chasseurs de voûtes</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Végétal</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Véhicule</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Villageois</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Villageois (désert)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Villageois (Jungle)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Villageois (Plaines)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Villageois (Savane)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Villageois (Toundra enneigée)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Villageois (Marais)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Villageois (Taïga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtuel</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace et Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>La guerre des mondes</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Nous, les ours</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Nous sommes heureux</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Météo</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Bienvenue à la maison</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Qui est-ce ?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Mise à jour sauvage</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Les ailes du feu</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winnie l'ourson</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World (Monde merveilleux)</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Bois</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Laine</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Casque de sécurité</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Jeune</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Signe du Zodiaque</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanille)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Zootopie</t>
-  </si>
-  <si>
     <t>Dune II</t>
   </si>
   <si>
@@ -5270,9 +5285,6 @@
   </si>
   <si>
     <t>Persona 5</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
   </si>
   <si>
     <t>Safari</t>
@@ -5640,7 +5652,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -6961,45 +6973,42 @@
       <c r="A164" t="s">
         <v>232</v>
       </c>
-      <c r="B164" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
+        <v>233</v>
+      </c>
+      <c r="B165" t="s">
         <v>234</v>
-      </c>
-      <c r="B165" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" t="s">
         <v>236</v>
-      </c>
-      <c r="B166" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
+        <v>237</v>
+      </c>
+      <c r="B167" t="s">
         <v>238</v>
-      </c>
-      <c r="B167" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" t="s">
         <v>240</v>
-      </c>
-      <c r="B168" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B169" t="s">
         <v>242</v>
@@ -7010,36 +7019,36 @@
         <v>243</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
+        <v>244</v>
+      </c>
+      <c r="B171" t="s">
         <v>245</v>
-      </c>
-      <c r="B171" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" t="s">
         <v>247</v>
-      </c>
-      <c r="B172" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" t="s">
         <v>249</v>
-      </c>
-      <c r="B173" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B174" t="s">
         <v>251</v>
@@ -7058,20 +7067,20 @@
         <v>253</v>
       </c>
       <c r="B176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" t="s">
         <v>255</v>
-      </c>
-      <c r="B177" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
         <v>257</v>
@@ -7098,12 +7107,12 @@
         <v>260</v>
       </c>
       <c r="B181" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B182" t="s">
         <v>262</v>
@@ -7114,12 +7123,12 @@
         <v>263</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B184" t="s">
         <v>265</v>
@@ -7146,44 +7155,44 @@
         <v>268</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188" t="s">
         <v>270</v>
-      </c>
-      <c r="B188" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
+        <v>271</v>
+      </c>
+      <c r="B189" t="s">
         <v>272</v>
-      </c>
-      <c r="B189" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" t="s">
         <v>274</v>
-      </c>
-      <c r="B190" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
+        <v>275</v>
+      </c>
+      <c r="B191" t="s">
         <v>276</v>
-      </c>
-      <c r="B191" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
         <v>278</v>
@@ -7202,12 +7211,12 @@
         <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
         <v>282</v>
@@ -7218,12 +7227,12 @@
         <v>283</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
         <v>285</v>
@@ -7282,15 +7291,15 @@
         <v>292</v>
       </c>
       <c r="B204" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>293</v>
+      </c>
+      <c r="B205" t="s">
         <v>294</v>
-      </c>
-      <c r="B205" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -7298,7 +7307,7 @@
         <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -7314,39 +7323,39 @@
         <v>297</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
+        <v>298</v>
+      </c>
+      <c r="B209" t="s">
         <v>299</v>
-      </c>
-      <c r="B209" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>300</v>
+      </c>
+      <c r="B210" t="s">
         <v>301</v>
-      </c>
-      <c r="B210" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>302</v>
+      </c>
+      <c r="B211" t="s">
         <v>303</v>
-      </c>
-      <c r="B211" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>304</v>
+      </c>
+      <c r="B212" t="s">
         <v>305</v>
-      </c>
-      <c r="B212" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -7354,7 +7363,7 @@
         <v>306</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -7362,20 +7371,20 @@
         <v>307</v>
       </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>308</v>
+      </c>
+      <c r="B215" t="s">
         <v>309</v>
-      </c>
-      <c r="B215" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B216" t="s">
         <v>311</v>
@@ -7466,20 +7475,20 @@
         <v>322</v>
       </c>
       <c r="B227" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
+        <v>323</v>
+      </c>
+      <c r="B228" t="s">
         <v>324</v>
-      </c>
-      <c r="B228" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B229" t="s">
         <v>326</v>
@@ -7490,12 +7499,12 @@
         <v>327</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B231" t="s">
         <v>329</v>
@@ -7530,44 +7539,44 @@
         <v>333</v>
       </c>
       <c r="B235" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
+        <v>334</v>
+      </c>
+      <c r="B236" t="s">
         <v>335</v>
-      </c>
-      <c r="B236" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
+        <v>336</v>
+      </c>
+      <c r="B237" t="s">
         <v>337</v>
-      </c>
-      <c r="B237" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
+        <v>338</v>
+      </c>
+      <c r="B238" t="s">
         <v>339</v>
-      </c>
-      <c r="B238" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" t="s">
         <v>341</v>
-      </c>
-      <c r="B239" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B240" t="s">
         <v>343</v>
@@ -7594,28 +7603,28 @@
         <v>346</v>
       </c>
       <c r="B243" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
+        <v>347</v>
+      </c>
+      <c r="B244" t="s">
         <v>348</v>
-      </c>
-      <c r="B244" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
+        <v>349</v>
+      </c>
+      <c r="B245" t="s">
         <v>350</v>
-      </c>
-      <c r="B245" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B246" t="s">
         <v>352</v>
@@ -7626,20 +7635,20 @@
         <v>353</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
+        <v>354</v>
+      </c>
+      <c r="B248" t="s">
         <v>355</v>
-      </c>
-      <c r="B248" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B249" t="s">
         <v>357</v>
@@ -7698,36 +7707,36 @@
         <v>364</v>
       </c>
       <c r="B256" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
+        <v>365</v>
+      </c>
+      <c r="B257" t="s">
         <v>366</v>
-      </c>
-      <c r="B257" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
+        <v>367</v>
+      </c>
+      <c r="B258" t="s">
         <v>368</v>
-      </c>
-      <c r="B258" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
+        <v>369</v>
+      </c>
+      <c r="B259" t="s">
         <v>370</v>
-      </c>
-      <c r="B259" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B260" t="s">
         <v>372</v>
@@ -7738,20 +7747,20 @@
         <v>373</v>
       </c>
       <c r="B261" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
+        <v>374</v>
+      </c>
+      <c r="B262" t="s">
         <v>375</v>
-      </c>
-      <c r="B262" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B263" t="s">
         <v>377</v>
@@ -7770,20 +7779,20 @@
         <v>379</v>
       </c>
       <c r="B265" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
+        <v>380</v>
+      </c>
+      <c r="B266" t="s">
         <v>381</v>
-      </c>
-      <c r="B266" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B267" t="s">
         <v>383</v>
@@ -7866,12 +7875,12 @@
         <v>393</v>
       </c>
       <c r="B277" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B278" t="s">
         <v>395</v>
@@ -7914,12 +7923,12 @@
         <v>400</v>
       </c>
       <c r="B283" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B284" t="s">
         <v>402</v>
@@ -7938,12 +7947,12 @@
         <v>404</v>
       </c>
       <c r="B286" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B287" t="s">
         <v>406</v>
@@ -7978,20 +7987,20 @@
         <v>410</v>
       </c>
       <c r="B291" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
+        <v>411</v>
+      </c>
+      <c r="B292" t="s">
         <v>412</v>
-      </c>
-      <c r="B292" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B293" t="s">
         <v>414</v>
@@ -8010,36 +8019,36 @@
         <v>416</v>
       </c>
       <c r="B295" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
+        <v>417</v>
+      </c>
+      <c r="B296" t="s">
         <v>418</v>
-      </c>
-      <c r="B296" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
+        <v>419</v>
+      </c>
+      <c r="B297" t="s">
         <v>420</v>
-      </c>
-      <c r="B297" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
+        <v>421</v>
+      </c>
+      <c r="B298" t="s">
         <v>422</v>
-      </c>
-      <c r="B298" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B299" t="s">
         <v>424</v>
@@ -8050,12 +8059,12 @@
         <v>425</v>
       </c>
       <c r="B300" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B301" t="s">
         <v>427</v>
@@ -8066,20 +8075,20 @@
         <v>428</v>
       </c>
       <c r="B302" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
+        <v>429</v>
+      </c>
+      <c r="B303" t="s">
         <v>430</v>
-      </c>
-      <c r="B303" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B304" t="s">
         <v>432</v>
@@ -8090,12 +8099,12 @@
         <v>433</v>
       </c>
       <c r="B305" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B306" t="s">
         <v>435</v>
@@ -8122,20 +8131,20 @@
         <v>438</v>
       </c>
       <c r="B309" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
+        <v>439</v>
+      </c>
+      <c r="B310" t="s">
         <v>440</v>
-      </c>
-      <c r="B310" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B311" t="s">
         <v>442</v>
@@ -8154,28 +8163,28 @@
         <v>444</v>
       </c>
       <c r="B313" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
+        <v>445</v>
+      </c>
+      <c r="B314" t="s">
         <v>446</v>
-      </c>
-      <c r="B314" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
+        <v>447</v>
+      </c>
+      <c r="B315" t="s">
         <v>448</v>
-      </c>
-      <c r="B315" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B316" t="s">
         <v>450</v>
@@ -8225,9 +8234,6 @@
       <c r="A322" t="s">
         <v>456</v>
       </c>
-      <c r="B322" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
@@ -8250,20 +8256,20 @@
         <v>459</v>
       </c>
       <c r="B325" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B326" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B327" t="s">
         <v>462</v>
@@ -8298,92 +8304,92 @@
         <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B333" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B334" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B335" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B336" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B337" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
+        <v>478</v>
+      </c>
+      <c r="B338" t="s">
         <v>479</v>
-      </c>
-      <c r="B338" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B342" t="s">
         <v>486</v>
@@ -8391,175 +8397,175 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
+        <v>487</v>
+      </c>
+      <c r="B343" t="s">
         <v>488</v>
-      </c>
-      <c r="B343" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B344" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B345" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B346" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B347" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B348" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B349" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B350" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B351" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B352" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B353" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B354" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B355" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B356" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B357" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B358" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B359" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B360" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B361" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B362" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B363" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B364" t="s">
         <v>529</v>
@@ -8578,292 +8584,292 @@
         <v>531</v>
       </c>
       <c r="B366" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B367" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B368" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B369" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B370" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B371" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B372" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B373" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B374" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B375" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B376" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B377" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B378" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B379" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B380" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B381" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B382" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B383" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B385" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B386" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B387" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B388" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B389" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B390" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B391" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B392" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B393" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B394" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B395" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B396" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B397" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B398" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B399" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
+        <v>597</v>
+      </c>
+      <c r="B400" t="s">
         <v>598</v>
-      </c>
-      <c r="B400" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B401" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B402" t="s">
         <v>601</v>
@@ -8874,204 +8880,204 @@
         <v>602</v>
       </c>
       <c r="B403" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B404" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
+        <v>604</v>
+      </c>
+      <c r="B405" t="s">
         <v>605</v>
-      </c>
-      <c r="B405" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B406" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B407" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B408" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B409" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B410" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B411" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B412" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B413" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B414" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B415" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
+        <v>625</v>
+      </c>
+      <c r="B416" t="s">
         <v>626</v>
-      </c>
-      <c r="B416" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B417" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B418" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B419" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B420" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B421" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B422" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B423" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B424" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
+        <v>642</v>
+      </c>
+      <c r="B425" t="s">
         <v>643</v>
-      </c>
-      <c r="B425" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B426" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B427" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B428" t="s">
         <v>648</v>
@@ -9114,172 +9120,172 @@
         <v>653</v>
       </c>
       <c r="B433" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B434" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B435" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B436" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B437" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B438" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
+        <v>663</v>
+      </c>
+      <c r="B439" t="s">
         <v>664</v>
-      </c>
-      <c r="B439" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B440" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
+        <v>666</v>
+      </c>
+      <c r="B441" t="s">
         <v>667</v>
-      </c>
-      <c r="B441" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B442" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B443" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
+        <v>671</v>
+      </c>
+      <c r="B444" t="s">
         <v>672</v>
-      </c>
-      <c r="B444" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B445" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B446" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B447" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B448" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B449" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B450" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
+        <v>684</v>
+      </c>
+      <c r="B451" t="s">
         <v>685</v>
-      </c>
-      <c r="B451" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B452" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B453" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B454" t="s">
         <v>690</v>
@@ -9290,52 +9296,52 @@
         <v>691</v>
       </c>
       <c r="B455" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B456" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B457" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B458" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B459" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B460" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B461" t="s">
         <v>702</v>
@@ -9370,36 +9376,36 @@
         <v>706</v>
       </c>
       <c r="B465" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B466" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B467" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B468" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B469" t="s">
         <v>713</v>
@@ -9426,36 +9432,36 @@
         <v>716</v>
       </c>
       <c r="B472" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B473" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
+        <v>718</v>
+      </c>
+      <c r="B474" t="s">
         <v>719</v>
-      </c>
-      <c r="B474" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B475" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B476" t="s">
         <v>722</v>
@@ -9466,20 +9472,20 @@
         <v>723</v>
       </c>
       <c r="B477" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B478" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B479" t="s">
         <v>726</v>
@@ -9490,20 +9496,20 @@
         <v>727</v>
       </c>
       <c r="B480" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B481" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B482" t="s">
         <v>730</v>
@@ -9538,55 +9544,55 @@
         <v>734</v>
       </c>
       <c r="B486" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B487" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B488" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B489" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B490" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B491" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
+        <v>744</v>
+      </c>
+      <c r="B492" t="s">
         <v>745</v>
-      </c>
-      <c r="B492" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -9594,188 +9600,188 @@
         <v>746</v>
       </c>
       <c r="B493" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B494" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B495" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B496" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B497" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B498" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B499" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B500" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B501" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B502" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B503" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B504" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B505" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B506" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
+        <v>772</v>
+      </c>
+      <c r="B507" t="s">
         <v>773</v>
-      </c>
-      <c r="B507" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B508" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B509" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
+        <v>777</v>
+      </c>
+      <c r="B510" t="s">
         <v>778</v>
-      </c>
-      <c r="B510" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B511" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
+        <v>780</v>
+      </c>
+      <c r="B512" t="s">
         <v>781</v>
-      </c>
-      <c r="B512" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B513" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B514" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B515" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B516" t="s">
         <v>788</v>
@@ -9786,124 +9792,124 @@
         <v>789</v>
       </c>
       <c r="B517" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B518" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B519" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B520" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B521" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B522" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B523" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B524" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B525" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B526" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B527" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B528" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B529" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B530" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B531" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B532" t="s">
         <v>818</v>
@@ -9922,20 +9928,20 @@
         <v>820</v>
       </c>
       <c r="B534" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B535" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B536" t="s">
         <v>823</v>
@@ -9978,44 +9984,44 @@
         <v>828</v>
       </c>
       <c r="B541" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B542" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
+        <v>830</v>
+      </c>
+      <c r="B543" t="s">
         <v>831</v>
-      </c>
-      <c r="B543" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B544" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B545" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B546" t="s">
         <v>836</v>
@@ -10066,68 +10072,68 @@
         <v>842</v>
       </c>
       <c r="B552" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B553" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B554" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B555" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B556" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B557" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B558" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B559" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B560" t="s">
         <v>857</v>
@@ -10138,92 +10144,92 @@
         <v>858</v>
       </c>
       <c r="B561" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B562" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B563" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B564" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
+        <v>864</v>
+      </c>
+      <c r="B565" t="s">
         <v>865</v>
-      </c>
-      <c r="B565" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B566" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B567" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
+        <v>869</v>
+      </c>
+      <c r="B568" t="s">
         <v>870</v>
-      </c>
-      <c r="B568" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B569" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B570" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B571" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B572" t="s">
         <v>877</v>
@@ -10258,260 +10264,257 @@
         <v>881</v>
       </c>
       <c r="B576" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B577" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>884</v>
-      </c>
-      <c r="B578" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B579" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B580" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B581" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B582" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B583" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B584" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B585" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
+        <v>896</v>
+      </c>
+      <c r="B586" t="s">
         <v>897</v>
-      </c>
-      <c r="B586" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B587" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B588" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B589" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B590" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B591" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B592" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B593" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B594" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B595" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B596" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B597" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B598" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
+        <v>918</v>
+      </c>
+      <c r="B599" t="s">
         <v>919</v>
-      </c>
-      <c r="B599" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B600" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B601" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
+        <v>922</v>
+      </c>
+      <c r="B602" t="s">
         <v>923</v>
-      </c>
-      <c r="B602" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B603" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B604" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
+        <v>926</v>
+      </c>
+      <c r="B605" t="s">
         <v>927</v>
-      </c>
-      <c r="B605" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B606" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B607" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B608" t="s">
         <v>931</v>
@@ -10546,76 +10549,76 @@
         <v>935</v>
       </c>
       <c r="B612" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B613" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B614" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B615" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B616" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B617" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
+        <v>943</v>
+      </c>
+      <c r="B618" t="s">
         <v>944</v>
-      </c>
-      <c r="B618" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B619" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B620" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B621" t="s">
         <v>948</v>
@@ -10770,108 +10773,108 @@
         <v>967</v>
       </c>
       <c r="B640" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B641" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B642" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B643" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B644" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B645" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B646" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B647" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B648" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B649" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
+        <v>982</v>
+      </c>
+      <c r="B650" t="s">
         <v>983</v>
-      </c>
-      <c r="B650" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B651" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B652" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B653" t="s">
         <v>987</v>
@@ -10882,68 +10885,68 @@
         <v>988</v>
       </c>
       <c r="B654" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B655" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B656" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B657" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B658" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B659" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B660" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B661" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B662" t="s">
         <v>1001</v>
@@ -10954,76 +10957,76 @@
         <v>1002</v>
       </c>
       <c r="B663" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B664" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B665" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B666" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B667" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B668" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B669" t="s">
         <v>1012</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B670" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B671" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B672" t="s">
         <v>1016</v>
@@ -11042,36 +11045,36 @@
         <v>1018</v>
       </c>
       <c r="B674" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B675" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B676" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B677" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B678" t="s">
         <v>1024</v>
@@ -11082,148 +11085,148 @@
         <v>1025</v>
       </c>
       <c r="B679" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B680" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B681" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B682" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B683" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B684" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B685" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B686" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B687" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B688" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B689" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B690" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B691" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B692" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B693" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B694" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B695" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B696" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B697" t="s">
         <v>1056</v>
@@ -11242,28 +11245,28 @@
         <v>1058</v>
       </c>
       <c r="B699" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B700" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B701" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B702" t="s">
         <v>1062</v>
@@ -11282,28 +11285,28 @@
         <v>1064</v>
       </c>
       <c r="B704" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B705" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B706" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B707" t="s">
         <v>1068</v>
@@ -11322,36 +11325,36 @@
         <v>1070</v>
       </c>
       <c r="B709" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B710" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B711" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B712" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B713" t="s">
         <v>1076</v>
@@ -11402,116 +11405,116 @@
         <v>1082</v>
       </c>
       <c r="B719" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B720" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B721" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B722" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B723" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B724" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B725" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B726" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B727" t="s">
         <v>1095</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B728" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B729" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B730" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B731" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B732" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B733" t="s">
         <v>1105</v>
@@ -11554,36 +11557,36 @@
         <v>1110</v>
       </c>
       <c r="B738" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B739" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B740" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B741" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B742" t="s">
         <v>1116</v>
@@ -11594,204 +11597,204 @@
         <v>1117</v>
       </c>
       <c r="B743" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B744" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B745" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B746" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B747" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B748" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B749" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B750" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B751" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B752" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B753" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B754" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B755" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B756" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B757" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B758" t="s">
         <v>1142</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B759" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B760" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B761" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B762" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B763" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B764" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B765" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B766" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B767" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B768" t="s">
         <v>1160</v>
@@ -11810,76 +11813,76 @@
         <v>1162</v>
       </c>
       <c r="B770" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B771" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B772" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B773" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B774" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B775" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B776" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B777" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B778" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B779" t="s">
         <v>1177</v>
@@ -11890,52 +11893,52 @@
         <v>1178</v>
       </c>
       <c r="B780" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B781" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B782" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B783" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B784" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B785" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B786" t="s">
         <v>1187</v>
@@ -12010,68 +12013,68 @@
         <v>1196</v>
       </c>
       <c r="B795" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B796" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B797" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B798" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B799" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B800" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B801" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B802" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B803" t="s">
         <v>1210</v>
@@ -12090,36 +12093,36 @@
         <v>1212</v>
       </c>
       <c r="B805" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B806" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B807" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B808" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B809" t="s">
         <v>1218</v>
@@ -12146,92 +12149,92 @@
         <v>1221</v>
       </c>
       <c r="B812" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B813" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B814" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B815" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B816" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B817" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B818" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B819" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B820" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B821" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B822" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B823" t="s">
         <v>1237</v>
@@ -12242,28 +12245,28 @@
         <v>1238</v>
       </c>
       <c r="B824" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B825" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B826" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B827" t="s">
         <v>1242</v>
@@ -12282,68 +12285,68 @@
         <v>1244</v>
       </c>
       <c r="B829" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B830" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B831" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B832" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B833" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B834" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B835" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B836" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B837" t="s">
         <v>1256</v>
@@ -12370,116 +12373,116 @@
         <v>1259</v>
       </c>
       <c r="B840" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B841" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B842" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B843" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B844" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B845" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B846" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B847" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B848" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B849" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B850" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B851" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B852" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B853" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B854" t="s">
         <v>1285</v>
@@ -12522,28 +12525,28 @@
         <v>1290</v>
       </c>
       <c r="B859" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B860" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B861" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B862" t="s">
         <v>1294</v>
@@ -12562,124 +12565,124 @@
         <v>1296</v>
       </c>
       <c r="B864" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B865" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B866" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B867" t="s">
         <v>1300</v>
-      </c>
-      <c r="B867" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B868" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B869" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B870" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B871" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B872" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B873" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B874" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B875" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B876" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B877" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B878" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B879" t="s">
         <v>1319</v>
@@ -12722,36 +12725,36 @@
         <v>1324</v>
       </c>
       <c r="B884" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B885" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B886" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B887" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B888" t="s">
         <v>1329</v>
@@ -12786,84 +12789,84 @@
         <v>1333</v>
       </c>
       <c r="B892" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B893" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B894" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B895" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B896" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B897" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B898" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B899" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B900" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B901" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B902" t="s">
         <v>1348</v>
@@ -12882,164 +12885,164 @@
         <v>1350</v>
       </c>
       <c r="B904" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B905" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B906" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B907" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B908" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B909" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B910" t="s">
         <v>1359</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B911" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B912" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B913" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B914" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="B915" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B916" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B917" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B918" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B919" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B920" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B921" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B922" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B923" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B924" t="s">
         <v>1382</v>
@@ -13050,132 +13053,132 @@
         <v>1383</v>
       </c>
       <c r="B925" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B926" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B927" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B928" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B929" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B930" t="s">
         <v>1390</v>
-      </c>
-      <c r="B930" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B931" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B932" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B933" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B934" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B935" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B936" t="s">
         <v>1399</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B937" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B938" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B939" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B940" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B941" t="s">
         <v>1406</v>
@@ -13202,132 +13205,132 @@
         <v>1409</v>
       </c>
       <c r="B944" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B945" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B946" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B947" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B948" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B949" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B950" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B951" t="s">
         <v>1420</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B952" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B953" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B954" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B955" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B956" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B957" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B958" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B959" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B960" t="s">
         <v>1433</v>
@@ -13338,100 +13341,100 @@
         <v>1434</v>
       </c>
       <c r="B961" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B962" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B963" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B964" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B965" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="B966" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="B967" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B968" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B969" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B970" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B971" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B972" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B973" t="s">
         <v>1454</v>
@@ -13474,252 +13477,249 @@
         <v>1459</v>
       </c>
       <c r="B978" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B979" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B980" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B981" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B982" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B983" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B985" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B986" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B987" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B988" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B989" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B990" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B991" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B992" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B993" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B994" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B995" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B996" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B997" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B998" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B999" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B1000" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B1001" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B1002" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1003" t="s">
         <v>1495</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1004" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B1005" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B1006" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B1007" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B1008" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1009" t="s">
         <v>1503</v>
@@ -13738,7 +13738,7 @@
         <v>1505</v>
       </c>
       <c r="B1011" t="s">
-        <v>449</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -13754,68 +13754,68 @@
         <v>1507</v>
       </c>
       <c r="B1013" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1014" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B1015" t="s">
-        <v>1512</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B1016" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B1017" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B1018" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B1019" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1020" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1021" t="s">
         <v>1519</v>
@@ -13874,108 +13874,108 @@
         <v>1526</v>
       </c>
       <c r="B1028" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1029" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1030" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B1031" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B1032" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="B1033" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B1034" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="B1035" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B1036" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B1037" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="B1038" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B1039" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B1040" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1041" t="s">
         <v>1548</v>
@@ -13986,252 +13986,252 @@
         <v>1549</v>
       </c>
       <c r="B1042" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1043" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B1044" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B1045" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="B1046" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B1047" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="B1048" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B1049" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B1050" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B1051" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="B1052" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B1053" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B1054" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B1055" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="B1056" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B1057" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="B1058" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B1059" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B1060" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B1061" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B1062" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B1063" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1064" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1592</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B1066" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B1067" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B1068" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1069" t="s">
         <v>1597</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B1070" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1071" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B1072" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B1073" t="s">
         <v>1602</v>
@@ -14250,164 +14250,164 @@
         <v>1604</v>
       </c>
       <c r="B1075" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1076" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1077" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1078" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1079" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B1080" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B1081" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="B1082" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B1083" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1084" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B1085" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="B1086" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B1087" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B1088" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B1089" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1090" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B1091" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1092" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B1093" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1094" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1095" t="s">
         <v>1635</v>
@@ -14450,204 +14450,204 @@
         <v>1640</v>
       </c>
       <c r="B1100" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B1101" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1102" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1103" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B1104" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B1105" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B1106" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B1107" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B1108" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B1109" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B1110" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B1111" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B1112" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B1113" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B1114" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B1115" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="B1116" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="B1117" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B1118" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B1119" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="B1120" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="B1121" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="B1122" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B1123" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B1124" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B1125" t="s">
         <v>1684</v>
@@ -14666,44 +14666,44 @@
         <v>1686</v>
       </c>
       <c r="B1127" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1128" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B1129" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B1130" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B1131" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B1132" t="s">
         <v>1693</v>
@@ -14714,140 +14714,140 @@
         <v>1694</v>
       </c>
       <c r="B1133" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1134" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B1135" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="B1136" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="B1137" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B1138" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="B1139" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B1140" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="B1141" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B1142" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="B1143" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B1144" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B1145" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="B1146" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B1147" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="B1148" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B1149" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1150" t="s">
         <v>1724</v>
@@ -14898,36 +14898,36 @@
         <v>1730</v>
       </c>
       <c r="B1156" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B1157" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1158" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1159" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1160" t="s">
         <v>1735</v>
@@ -14946,60 +14946,60 @@
         <v>1737</v>
       </c>
       <c r="B1162" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B1163" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B1164" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B1165" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="B1166" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B1167" t="s">
-        <v>694</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B1168" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B1169" t="s">
         <v>1747</v>
@@ -15010,59 +15010,91 @@
         <v>1748</v>
       </c>
       <c r="B1170" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1171" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1172" t="s">
-        <v>1751</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1173" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B1174" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B1175" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" t="s">
         <v>1757</v>
       </c>
-      <c r="B1176" t="s">
+      <c r="B1178" t="s">
         <v>1758</v>
       </c>
     </row>
+    <row r="1179" spans="1:2">
+      <c r="A1179" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2">
+      <c r="A1180" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1180"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1768">
   <si>
     <t>en</t>
   </si>
@@ -1361,6 +1361,12 @@
   </si>
   <si>
     <t>Explosif</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>L'œil</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5661,7 +5667,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8207,44 +8213,44 @@
         <v>452</v>
       </c>
       <c r="B317" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B318" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B319" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B320" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B321" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B322" t="s">
         <v>458</v>
@@ -8255,36 +8261,36 @@
         <v>459</v>
       </c>
       <c r="B323" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B324" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B325" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B326" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B327" t="s">
         <v>464</v>
@@ -8295,44 +8301,44 @@
         <v>465</v>
       </c>
       <c r="B328" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B329" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B330" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B331" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B332" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B333" t="s">
         <v>471</v>
@@ -8383,12 +8389,12 @@
         <v>482</v>
       </c>
       <c r="B339" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B340" t="s">
         <v>484</v>
@@ -8423,15 +8429,15 @@
         <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
+        <v>493</v>
+      </c>
+      <c r="B345" t="s">
         <v>492</v>
-      </c>
-      <c r="B345" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -8591,28 +8597,28 @@
         <v>532</v>
       </c>
       <c r="B365" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B366" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B367" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B368" t="s">
         <v>536</v>
@@ -8879,12 +8885,12 @@
         <v>601</v>
       </c>
       <c r="B401" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B402" t="s">
         <v>603</v>
@@ -8895,20 +8901,20 @@
         <v>604</v>
       </c>
       <c r="B403" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B404" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B405" t="s">
         <v>607</v>
@@ -8919,12 +8925,12 @@
         <v>608</v>
       </c>
       <c r="B406" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B407" t="s">
         <v>610</v>
@@ -9007,12 +9013,12 @@
         <v>629</v>
       </c>
       <c r="B417" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B418" t="s">
         <v>631</v>
@@ -9079,12 +9085,12 @@
         <v>646</v>
       </c>
       <c r="B426" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B427" t="s">
         <v>648</v>
@@ -9103,52 +9109,52 @@
         <v>651</v>
       </c>
       <c r="B429" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B430" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B431" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B432" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B433" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B434" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B435" t="s">
         <v>658</v>
@@ -9191,12 +9197,12 @@
         <v>667</v>
       </c>
       <c r="B440" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B441" t="s">
         <v>669</v>
@@ -9207,12 +9213,12 @@
         <v>670</v>
       </c>
       <c r="B442" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B443" t="s">
         <v>672</v>
@@ -9231,12 +9237,12 @@
         <v>675</v>
       </c>
       <c r="B445" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B446" t="s">
         <v>677</v>
@@ -9287,12 +9293,12 @@
         <v>688</v>
       </c>
       <c r="B452" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B453" t="s">
         <v>690</v>
@@ -9311,20 +9317,20 @@
         <v>693</v>
       </c>
       <c r="B455" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B456" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B457" t="s">
         <v>696</v>
@@ -9367,44 +9373,44 @@
         <v>705</v>
       </c>
       <c r="B462" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B463" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B464" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B465" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B466" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B467" t="s">
         <v>711</v>
@@ -9431,36 +9437,36 @@
         <v>716</v>
       </c>
       <c r="B470" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B471" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B472" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B473" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B474" t="s">
         <v>721</v>
@@ -9471,12 +9477,12 @@
         <v>722</v>
       </c>
       <c r="B475" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B476" t="s">
         <v>724</v>
@@ -9487,20 +9493,20 @@
         <v>725</v>
       </c>
       <c r="B477" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B478" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B479" t="s">
         <v>728</v>
@@ -9511,20 +9517,20 @@
         <v>729</v>
       </c>
       <c r="B480" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B481" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B482" t="s">
         <v>732</v>
@@ -9535,44 +9541,44 @@
         <v>733</v>
       </c>
       <c r="B483" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B484" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B485" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B486" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B487" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B488" t="s">
         <v>739</v>
@@ -9615,23 +9621,23 @@
         <v>748</v>
       </c>
       <c r="B493" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B494" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B495" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9735,12 +9741,12 @@
         <v>776</v>
       </c>
       <c r="B508" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B509" t="s">
         <v>778</v>
@@ -9759,12 +9765,12 @@
         <v>781</v>
       </c>
       <c r="B511" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B512" t="s">
         <v>783</v>
@@ -9775,12 +9781,12 @@
         <v>784</v>
       </c>
       <c r="B513" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B514" t="s">
         <v>786</v>
@@ -9807,20 +9813,20 @@
         <v>791</v>
       </c>
       <c r="B517" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B518" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B519" t="s">
         <v>794</v>
@@ -9935,28 +9941,28 @@
         <v>821</v>
       </c>
       <c r="B533" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B534" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B535" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B536" t="s">
         <v>825</v>
@@ -9967,52 +9973,52 @@
         <v>826</v>
       </c>
       <c r="B537" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B538" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B539" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B540" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B541" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B542" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B543" t="s">
         <v>833</v>
@@ -10023,12 +10029,12 @@
         <v>834</v>
       </c>
       <c r="B544" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B545" t="s">
         <v>836</v>
@@ -10047,60 +10053,60 @@
         <v>839</v>
       </c>
       <c r="B547" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B548" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B549" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B550" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B551" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B552" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B553" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B554" t="s">
         <v>847</v>
@@ -10159,20 +10165,20 @@
         <v>860</v>
       </c>
       <c r="B561" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B562" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B563" t="s">
         <v>863</v>
@@ -10199,12 +10205,12 @@
         <v>868</v>
       </c>
       <c r="B566" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B567" t="s">
         <v>870</v>
@@ -10223,12 +10229,12 @@
         <v>873</v>
       </c>
       <c r="B569" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B570" t="s">
         <v>875</v>
@@ -10255,44 +10261,44 @@
         <v>880</v>
       </c>
       <c r="B573" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B574" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B575" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B576" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B577" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B578" t="s">
         <v>886</v>
@@ -10311,12 +10317,12 @@
         <v>889</v>
       </c>
       <c r="B580" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B581" t="s">
         <v>891</v>
@@ -10327,12 +10333,12 @@
         <v>892</v>
       </c>
       <c r="B582" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B583" t="s">
         <v>894</v>
@@ -10367,20 +10373,20 @@
         <v>901</v>
       </c>
       <c r="B587" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B588" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B589" t="s">
         <v>904</v>
@@ -10399,12 +10405,12 @@
         <v>907</v>
       </c>
       <c r="B591" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B592" t="s">
         <v>909</v>
@@ -10415,12 +10421,12 @@
         <v>910</v>
       </c>
       <c r="B593" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B594" t="s">
         <v>912</v>
@@ -10471,20 +10477,20 @@
         <v>923</v>
       </c>
       <c r="B600" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B601" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B602" t="s">
         <v>926</v>
@@ -10495,20 +10501,20 @@
         <v>927</v>
       </c>
       <c r="B603" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B604" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B605" t="s">
         <v>930</v>
@@ -10519,20 +10525,20 @@
         <v>931</v>
       </c>
       <c r="B606" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B607" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B608" t="s">
         <v>934</v>
@@ -10543,52 +10549,52 @@
         <v>935</v>
       </c>
       <c r="B609" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B610" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B611" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B612" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B613" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B614" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B615" t="s">
         <v>942</v>
@@ -10599,12 +10605,12 @@
         <v>943</v>
       </c>
       <c r="B616" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B617" t="s">
         <v>945</v>
@@ -10623,20 +10629,20 @@
         <v>948</v>
       </c>
       <c r="B619" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B620" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B621" t="s">
         <v>951</v>
@@ -10647,172 +10653,172 @@
         <v>952</v>
       </c>
       <c r="B622" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B623" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B624" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B625" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B626" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B627" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B628" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B629" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B630" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B631" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B632" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B633" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B634" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B635" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B636" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B637" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B638" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B639" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B640" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B641" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B642" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B643" t="s">
         <v>974</v>
@@ -10847,12 +10853,12 @@
         <v>981</v>
       </c>
       <c r="B647" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B648" t="s">
         <v>983</v>
@@ -10863,12 +10869,12 @@
         <v>984</v>
       </c>
       <c r="B649" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B650" t="s">
         <v>986</v>
@@ -10879,20 +10885,20 @@
         <v>987</v>
       </c>
       <c r="B651" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B652" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B653" t="s">
         <v>990</v>
@@ -10903,28 +10909,28 @@
         <v>991</v>
       </c>
       <c r="B654" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B655" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B656" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B657" t="s">
         <v>995</v>
@@ -10935,12 +10941,12 @@
         <v>996</v>
       </c>
       <c r="B658" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B659" t="s">
         <v>998</v>
@@ -10975,28 +10981,28 @@
         <v>1005</v>
       </c>
       <c r="B663" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B664" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B665" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B666" t="s">
         <v>1009</v>
@@ -11031,20 +11037,20 @@
         <v>1016</v>
       </c>
       <c r="B670" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B671" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B672" t="s">
         <v>1019</v>
@@ -11055,36 +11061,36 @@
         <v>1020</v>
       </c>
       <c r="B673" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B674" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B675" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B676" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B677" t="s">
         <v>1025</v>
@@ -11103,28 +11109,28 @@
         <v>1028</v>
       </c>
       <c r="B679" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B680" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B681" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B682" t="s">
         <v>1032</v>
@@ -11143,12 +11149,12 @@
         <v>1035</v>
       </c>
       <c r="B684" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B685" t="s">
         <v>1037</v>
@@ -11183,12 +11189,12 @@
         <v>1044</v>
       </c>
       <c r="B689" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B690" t="s">
         <v>1046</v>
@@ -11207,12 +11213,12 @@
         <v>1049</v>
       </c>
       <c r="B692" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B693" t="s">
         <v>1051</v>
@@ -11255,36 +11261,36 @@
         <v>1060</v>
       </c>
       <c r="B698" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B699" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B700" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B701" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B702" t="s">
         <v>1065</v>
@@ -11295,36 +11301,36 @@
         <v>1066</v>
       </c>
       <c r="B703" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B704" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B705" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B706" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B707" t="s">
         <v>1071</v>
@@ -11335,36 +11341,36 @@
         <v>1072</v>
       </c>
       <c r="B708" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B709" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B710" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B711" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B712" t="s">
         <v>1077</v>
@@ -11383,68 +11389,68 @@
         <v>1080</v>
       </c>
       <c r="B714" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B715" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B716" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B717" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B718" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B719" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B720" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B721" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B722" t="s">
         <v>1089</v>
@@ -11479,12 +11485,12 @@
         <v>1096</v>
       </c>
       <c r="B726" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B727" t="s">
         <v>1098</v>
@@ -11495,20 +11501,20 @@
         <v>1099</v>
       </c>
       <c r="B728" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B729" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B730" t="s">
         <v>1102</v>
@@ -11543,60 +11549,60 @@
         <v>1109</v>
       </c>
       <c r="B734" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B735" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B736" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B737" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B738" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B739" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B740" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B741" t="s">
         <v>1117</v>
@@ -11615,28 +11621,28 @@
         <v>1120</v>
       </c>
       <c r="B743" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B744" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B745" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B746" t="s">
         <v>1124</v>
@@ -11663,12 +11669,12 @@
         <v>1129</v>
       </c>
       <c r="B749" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B750" t="s">
         <v>1131</v>
@@ -11695,12 +11701,12 @@
         <v>1136</v>
       </c>
       <c r="B753" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B754" t="s">
         <v>1138</v>
@@ -11727,12 +11733,12 @@
         <v>1143</v>
       </c>
       <c r="B757" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B758" t="s">
         <v>1145</v>
@@ -11743,20 +11749,20 @@
         <v>1146</v>
       </c>
       <c r="B759" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B760" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B761" t="s">
         <v>1149</v>
@@ -11823,36 +11829,36 @@
         <v>1164</v>
       </c>
       <c r="B769" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B770" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B771" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B772" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B773" t="s">
         <v>1169</v>
@@ -11863,12 +11869,12 @@
         <v>1170</v>
       </c>
       <c r="B774" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B775" t="s">
         <v>1172</v>
@@ -11911,28 +11917,28 @@
         <v>1181</v>
       </c>
       <c r="B780" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B781" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B782" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B783" t="s">
         <v>1185</v>
@@ -11951,12 +11957,12 @@
         <v>1188</v>
       </c>
       <c r="B785" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B786" t="s">
         <v>1190</v>
@@ -11967,92 +11973,92 @@
         <v>1191</v>
       </c>
       <c r="B787" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B788" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B789" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B790" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B791" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B792" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B793" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B794" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B795" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B796" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B797" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B798" t="s">
         <v>1203</v>
@@ -12103,36 +12109,36 @@
         <v>1214</v>
       </c>
       <c r="B804" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B805" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B806" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B807" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B808" t="s">
         <v>1219</v>
@@ -12151,44 +12157,44 @@
         <v>1222</v>
       </c>
       <c r="B810" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B811" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B812" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B813" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B814" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B815" t="s">
         <v>1228</v>
@@ -12199,12 +12205,12 @@
         <v>1229</v>
       </c>
       <c r="B816" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B817" t="s">
         <v>1231</v>
@@ -12215,12 +12221,12 @@
         <v>1232</v>
       </c>
       <c r="B818" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B819" t="s">
         <v>1234</v>
@@ -12231,12 +12237,12 @@
         <v>1235</v>
       </c>
       <c r="B820" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B821" t="s">
         <v>1237</v>
@@ -12247,12 +12253,12 @@
         <v>1238</v>
       </c>
       <c r="B822" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B823" t="s">
         <v>1240</v>
@@ -12263,28 +12269,28 @@
         <v>1241</v>
       </c>
       <c r="B824" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B825" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B826" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B827" t="s">
         <v>1245</v>
@@ -12295,36 +12301,36 @@
         <v>1246</v>
       </c>
       <c r="B828" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B829" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B830" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B831" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B832" t="s">
         <v>1251</v>
@@ -12343,12 +12349,12 @@
         <v>1254</v>
       </c>
       <c r="B834" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B835" t="s">
         <v>1256</v>
@@ -12359,12 +12365,12 @@
         <v>1257</v>
       </c>
       <c r="B836" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B837" t="s">
         <v>1259</v>
@@ -12375,44 +12381,44 @@
         <v>1260</v>
       </c>
       <c r="B838" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B839" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B840" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B841" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B842" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B843" t="s">
         <v>1266</v>
@@ -12511,60 +12517,60 @@
         <v>1289</v>
       </c>
       <c r="B855" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B856" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B857" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B858" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B859" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B860" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B861" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B862" t="s">
         <v>1297</v>
@@ -12575,36 +12581,36 @@
         <v>1298</v>
       </c>
       <c r="B863" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B864" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B865" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B866" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B867" t="s">
         <v>1303</v>
@@ -12615,20 +12621,20 @@
         <v>1304</v>
       </c>
       <c r="B868" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B869" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B870" t="s">
         <v>1307</v>
@@ -12639,12 +12645,12 @@
         <v>1308</v>
       </c>
       <c r="B871" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B872" t="s">
         <v>1310</v>
@@ -12671,20 +12677,20 @@
         <v>1315</v>
       </c>
       <c r="B875" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B876" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B877" t="s">
         <v>1318</v>
@@ -12711,68 +12717,68 @@
         <v>1323</v>
       </c>
       <c r="B880" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B881" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B882" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B883" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B884" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B885" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B886" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B887" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B888" t="s">
         <v>1332</v>
@@ -12783,60 +12789,60 @@
         <v>1333</v>
       </c>
       <c r="B889" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B890" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B891" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B892" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B893" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B894" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B895" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B896" t="s">
         <v>1341</v>
@@ -12871,20 +12877,20 @@
         <v>1348</v>
       </c>
       <c r="B900" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B901" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B902" t="s">
         <v>1351</v>
@@ -12895,44 +12901,44 @@
         <v>1352</v>
       </c>
       <c r="B903" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B904" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B905" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B906" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B907" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B908" t="s">
         <v>1358</v>
@@ -12959,28 +12965,28 @@
         <v>1363</v>
       </c>
       <c r="B911" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B912" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B913" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B914" t="s">
         <v>1367</v>
@@ -13023,20 +13029,20 @@
         <v>1376</v>
       </c>
       <c r="B919" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B920" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B921" t="s">
         <v>1379</v>
@@ -13071,36 +13077,36 @@
         <v>1386</v>
       </c>
       <c r="B925" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B926" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B927" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B928" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B929" t="s">
         <v>1391</v>
@@ -13119,28 +13125,28 @@
         <v>1394</v>
       </c>
       <c r="B931" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B932" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B933" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B934" t="s">
         <v>1398</v>
@@ -13167,28 +13173,28 @@
         <v>1403</v>
       </c>
       <c r="B937" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B938" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B939" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B940" t="s">
         <v>1407</v>
@@ -13207,52 +13213,52 @@
         <v>1410</v>
       </c>
       <c r="B942" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B943" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B944" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B945" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B946" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B947" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B948" t="s">
         <v>1417</v>
@@ -13287,31 +13293,31 @@
         <v>1424</v>
       </c>
       <c r="B952" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B953" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B954" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B955" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -13327,20 +13333,20 @@
         <v>1431</v>
       </c>
       <c r="B957" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B958" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B959" t="s">
         <v>1434</v>
@@ -13359,36 +13365,36 @@
         <v>1437</v>
       </c>
       <c r="B961" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B962" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B963" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B964" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B965" t="s">
         <v>1442</v>
@@ -13447,12 +13453,12 @@
         <v>1455</v>
       </c>
       <c r="B972" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B973" t="s">
         <v>1457</v>
@@ -13463,68 +13469,68 @@
         <v>1458</v>
       </c>
       <c r="B974" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B975" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B976" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B977" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B978" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B979" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B980" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B981" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B982" t="s">
         <v>1467</v>
@@ -13543,28 +13549,28 @@
         <v>1470</v>
       </c>
       <c r="B984" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B985" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B986" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B987" t="s">
         <v>1474</v>
@@ -13575,20 +13581,20 @@
         <v>1475</v>
       </c>
       <c r="B988" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B989" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B990" t="s">
         <v>1478</v>
@@ -13607,28 +13613,28 @@
         <v>1481</v>
       </c>
       <c r="B992" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B993" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B994" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B995" t="s">
         <v>1485</v>
@@ -13663,28 +13669,28 @@
         <v>1492</v>
       </c>
       <c r="B999" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B1000" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B1001" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1002" t="s">
         <v>1496</v>
@@ -13703,36 +13709,36 @@
         <v>1499</v>
       </c>
       <c r="B1004" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1005" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1006" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1007" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1008" t="s">
         <v>1504</v>
@@ -13751,60 +13757,60 @@
         <v>1507</v>
       </c>
       <c r="B1010" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1011" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1012" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1013" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1014" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1015" t="s">
-        <v>451</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1016" t="s">
-        <v>1513</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1017" t="s">
         <v>1515</v>
@@ -13831,12 +13837,12 @@
         <v>1520</v>
       </c>
       <c r="B1020" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1021" t="s">
         <v>1522</v>
@@ -13847,84 +13853,84 @@
         <v>1523</v>
       </c>
       <c r="B1022" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B1023" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1024" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1025" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1026" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1027" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1028" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1029" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1030" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1031" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1032" t="s">
         <v>1534</v>
@@ -13935,12 +13941,12 @@
         <v>1535</v>
       </c>
       <c r="B1033" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1034" t="s">
         <v>1537</v>
@@ -14007,36 +14013,36 @@
         <v>1552</v>
       </c>
       <c r="B1042" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1043" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1044" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1045" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1046" t="s">
         <v>1557</v>
@@ -14199,28 +14205,28 @@
         <v>1596</v>
       </c>
       <c r="B1066" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1067" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1068" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1069" t="s">
         <v>1600</v>
@@ -14231,28 +14237,28 @@
         <v>1601</v>
       </c>
       <c r="B1070" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1071" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1072" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1073" t="s">
         <v>1605</v>
@@ -14263,44 +14269,44 @@
         <v>1606</v>
       </c>
       <c r="B1074" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1075" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1076" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1077" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1078" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1079" t="s">
         <v>1612</v>
@@ -14311,20 +14317,20 @@
         <v>1613</v>
       </c>
       <c r="B1080" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1081" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1082" t="s">
         <v>1616</v>
@@ -14351,12 +14357,12 @@
         <v>1621</v>
       </c>
       <c r="B1085" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1086" t="s">
         <v>1623</v>
@@ -14367,15 +14373,15 @@
         <v>1624</v>
       </c>
       <c r="B1087" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1088" t="s">
         <v>1625</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -14407,20 +14413,20 @@
         <v>1633</v>
       </c>
       <c r="B1092" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1093" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1094" t="s">
         <v>1636</v>
@@ -14439,68 +14445,68 @@
         <v>1639</v>
       </c>
       <c r="B1096" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1097" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1098" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1099" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1100" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1101" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1102" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1103" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1104" t="s">
         <v>1648</v>
@@ -14511,20 +14517,20 @@
         <v>1649</v>
       </c>
       <c r="B1105" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1106" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1107" t="s">
         <v>1652</v>
@@ -14599,12 +14605,12 @@
         <v>1669</v>
       </c>
       <c r="B1116" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1117" t="s">
         <v>1671</v>
@@ -14679,44 +14685,44 @@
         <v>1688</v>
       </c>
       <c r="B1126" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1127" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1128" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1129" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1130" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1131" t="s">
         <v>1694</v>
@@ -14735,36 +14741,36 @@
         <v>1697</v>
       </c>
       <c r="B1133" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1134" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1135" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1136" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1137" t="s">
         <v>1702</v>
@@ -14839,12 +14845,12 @@
         <v>1719</v>
       </c>
       <c r="B1146" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1147" t="s">
         <v>1721</v>
@@ -14879,76 +14885,76 @@
         <v>1728</v>
       </c>
       <c r="B1151" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1152" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1153" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1154" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1155" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1156" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1157" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1158" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1159" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1160" t="s">
         <v>1738</v>
@@ -14959,44 +14965,44 @@
         <v>1739</v>
       </c>
       <c r="B1161" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1162" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1163" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1164" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1165" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1166" t="s">
         <v>1745</v>
@@ -15007,12 +15013,12 @@
         <v>1746</v>
       </c>
       <c r="B1167" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1168" t="s">
         <v>1748</v>
@@ -15031,44 +15037,44 @@
         <v>1751</v>
       </c>
       <c r="B1170" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1171" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1172" t="s">
-        <v>698</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1173" t="s">
-        <v>1754</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1174" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1175" t="s">
         <v>1757</v>
@@ -15079,20 +15085,20 @@
         <v>1758</v>
       </c>
       <c r="B1176" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1177" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1178" t="s">
         <v>1761</v>
@@ -15114,8 +15120,16 @@
         <v>1765</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1767</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1770">
   <si>
     <t>en</t>
   </si>
@@ -4220,6 +4220,12 @@
   </si>
   <si>
     <t>Les sept péchés capitaux</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>L'ombre du colosse</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5667,7 +5673,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13181,28 +13187,28 @@
         <v>1405</v>
       </c>
       <c r="B938" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B939" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B940" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B941" t="s">
         <v>1409</v>
@@ -13221,52 +13227,52 @@
         <v>1412</v>
       </c>
       <c r="B943" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B944" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B945" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B946" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B947" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B948" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B949" t="s">
         <v>1419</v>
@@ -13301,31 +13307,31 @@
         <v>1426</v>
       </c>
       <c r="B953" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B954" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B955" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B956" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -13341,20 +13347,20 @@
         <v>1433</v>
       </c>
       <c r="B958" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B959" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B960" t="s">
         <v>1436</v>
@@ -13373,36 +13379,36 @@
         <v>1439</v>
       </c>
       <c r="B962" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B963" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B964" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B965" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B966" t="s">
         <v>1444</v>
@@ -13461,12 +13467,12 @@
         <v>1457</v>
       </c>
       <c r="B973" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B974" t="s">
         <v>1459</v>
@@ -13477,68 +13483,68 @@
         <v>1460</v>
       </c>
       <c r="B975" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B976" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B977" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B978" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B979" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B980" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B981" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B982" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B983" t="s">
         <v>1469</v>
@@ -13557,28 +13563,28 @@
         <v>1472</v>
       </c>
       <c r="B985" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B986" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B987" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B988" t="s">
         <v>1476</v>
@@ -13589,20 +13595,20 @@
         <v>1477</v>
       </c>
       <c r="B989" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B990" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B991" t="s">
         <v>1480</v>
@@ -13621,28 +13627,28 @@
         <v>1483</v>
       </c>
       <c r="B993" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B994" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B995" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B996" t="s">
         <v>1487</v>
@@ -13677,28 +13683,28 @@
         <v>1494</v>
       </c>
       <c r="B1000" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1001" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1002" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1003" t="s">
         <v>1498</v>
@@ -13717,36 +13723,36 @@
         <v>1501</v>
       </c>
       <c r="B1005" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1006" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1007" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1008" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1009" t="s">
         <v>1506</v>
@@ -13765,60 +13771,60 @@
         <v>1509</v>
       </c>
       <c r="B1011" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1012" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1013" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1014" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1015" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1016" t="s">
-        <v>453</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1017" t="s">
-        <v>1515</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1018" t="s">
         <v>1517</v>
@@ -13845,12 +13851,12 @@
         <v>1522</v>
       </c>
       <c r="B1021" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1022" t="s">
         <v>1524</v>
@@ -13861,84 +13867,84 @@
         <v>1525</v>
       </c>
       <c r="B1023" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1024" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1025" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1026" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1027" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1028" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1029" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1030" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1031" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1032" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1033" t="s">
         <v>1536</v>
@@ -13949,12 +13955,12 @@
         <v>1537</v>
       </c>
       <c r="B1034" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1035" t="s">
         <v>1539</v>
@@ -14021,36 +14027,36 @@
         <v>1554</v>
       </c>
       <c r="B1043" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1044" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1045" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1046" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1047" t="s">
         <v>1559</v>
@@ -14213,28 +14219,28 @@
         <v>1598</v>
       </c>
       <c r="B1067" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1068" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1069" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1070" t="s">
         <v>1602</v>
@@ -14245,28 +14251,28 @@
         <v>1603</v>
       </c>
       <c r="B1071" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1072" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1073" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1074" t="s">
         <v>1607</v>
@@ -14277,44 +14283,44 @@
         <v>1608</v>
       </c>
       <c r="B1075" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1076" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1077" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1078" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1079" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1080" t="s">
         <v>1614</v>
@@ -14325,20 +14331,20 @@
         <v>1615</v>
       </c>
       <c r="B1081" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1082" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1083" t="s">
         <v>1618</v>
@@ -14365,12 +14371,12 @@
         <v>1623</v>
       </c>
       <c r="B1086" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1087" t="s">
         <v>1625</v>
@@ -14381,15 +14387,15 @@
         <v>1626</v>
       </c>
       <c r="B1088" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1089" t="s">
         <v>1627</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -14421,20 +14427,20 @@
         <v>1635</v>
       </c>
       <c r="B1093" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1094" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1095" t="s">
         <v>1638</v>
@@ -14453,68 +14459,68 @@
         <v>1641</v>
       </c>
       <c r="B1097" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1098" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1099" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1100" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1101" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1102" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1103" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1104" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1105" t="s">
         <v>1650</v>
@@ -14525,20 +14531,20 @@
         <v>1651</v>
       </c>
       <c r="B1106" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1107" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1108" t="s">
         <v>1654</v>
@@ -14613,12 +14619,12 @@
         <v>1671</v>
       </c>
       <c r="B1117" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1118" t="s">
         <v>1673</v>
@@ -14693,44 +14699,44 @@
         <v>1690</v>
       </c>
       <c r="B1127" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1128" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1129" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1130" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1131" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1132" t="s">
         <v>1696</v>
@@ -14749,36 +14755,36 @@
         <v>1699</v>
       </c>
       <c r="B1134" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1135" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1136" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1137" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1138" t="s">
         <v>1704</v>
@@ -14853,12 +14859,12 @@
         <v>1721</v>
       </c>
       <c r="B1147" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1148" t="s">
         <v>1723</v>
@@ -14893,76 +14899,76 @@
         <v>1730</v>
       </c>
       <c r="B1152" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1153" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1154" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1155" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1156" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1157" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1158" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1159" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1160" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1161" t="s">
         <v>1740</v>
@@ -14973,44 +14979,44 @@
         <v>1741</v>
       </c>
       <c r="B1162" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1163" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1164" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1165" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1166" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1167" t="s">
         <v>1747</v>
@@ -15021,12 +15027,12 @@
         <v>1748</v>
       </c>
       <c r="B1168" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1169" t="s">
         <v>1750</v>
@@ -15045,44 +15051,44 @@
         <v>1753</v>
       </c>
       <c r="B1171" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1172" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1173" t="s">
-        <v>700</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1174" t="s">
-        <v>1756</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1175" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1176" t="s">
         <v>1759</v>
@@ -15093,20 +15099,20 @@
         <v>1760</v>
       </c>
       <c r="B1177" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1178" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1179" t="s">
         <v>1763</v>
@@ -15128,8 +15134,16 @@
         <v>1767</v>
       </c>
     </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1769</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1774">
   <si>
     <t>en</t>
   </si>
@@ -3365,6 +3365,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Les monts de la pagaille</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5679,7 +5685,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11633,28 +11639,28 @@
         <v>1120</v>
       </c>
       <c r="B743" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B744" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B745" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B746" t="s">
         <v>1124</v>
@@ -11681,12 +11687,12 @@
         <v>1129</v>
       </c>
       <c r="B749" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B750" t="s">
         <v>1131</v>
@@ -11713,12 +11719,12 @@
         <v>1136</v>
       </c>
       <c r="B753" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B754" t="s">
         <v>1138</v>
@@ -11745,12 +11751,12 @@
         <v>1143</v>
       </c>
       <c r="B757" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B758" t="s">
         <v>1145</v>
@@ -11761,20 +11767,20 @@
         <v>1146</v>
       </c>
       <c r="B759" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B760" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B761" t="s">
         <v>1149</v>
@@ -11841,36 +11847,36 @@
         <v>1164</v>
       </c>
       <c r="B769" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B770" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B771" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B772" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B773" t="s">
         <v>1169</v>
@@ -11881,12 +11887,12 @@
         <v>1170</v>
       </c>
       <c r="B774" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B775" t="s">
         <v>1172</v>
@@ -11929,28 +11935,28 @@
         <v>1181</v>
       </c>
       <c r="B780" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B781" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B782" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B783" t="s">
         <v>1185</v>
@@ -11969,12 +11975,12 @@
         <v>1188</v>
       </c>
       <c r="B785" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B786" t="s">
         <v>1190</v>
@@ -11985,92 +11991,92 @@
         <v>1191</v>
       </c>
       <c r="B787" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B788" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B789" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B790" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B791" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B792" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B793" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B794" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B795" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B796" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B797" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B798" t="s">
         <v>1203</v>
@@ -12121,36 +12127,36 @@
         <v>1214</v>
       </c>
       <c r="B804" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B805" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B806" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B807" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B808" t="s">
         <v>1219</v>
@@ -12169,44 +12175,44 @@
         <v>1222</v>
       </c>
       <c r="B810" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B811" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B812" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B813" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B814" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B815" t="s">
         <v>1228</v>
@@ -12217,12 +12223,12 @@
         <v>1229</v>
       </c>
       <c r="B816" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B817" t="s">
         <v>1231</v>
@@ -12233,12 +12239,12 @@
         <v>1232</v>
       </c>
       <c r="B818" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B819" t="s">
         <v>1234</v>
@@ -12249,12 +12255,12 @@
         <v>1235</v>
       </c>
       <c r="B820" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B821" t="s">
         <v>1237</v>
@@ -12265,12 +12271,12 @@
         <v>1238</v>
       </c>
       <c r="B822" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B823" t="s">
         <v>1240</v>
@@ -12281,28 +12287,28 @@
         <v>1241</v>
       </c>
       <c r="B824" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B825" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B826" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B827" t="s">
         <v>1245</v>
@@ -12313,36 +12319,36 @@
         <v>1246</v>
       </c>
       <c r="B828" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B829" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B830" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B831" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B832" t="s">
         <v>1251</v>
@@ -12361,12 +12367,12 @@
         <v>1254</v>
       </c>
       <c r="B834" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B835" t="s">
         <v>1256</v>
@@ -12377,12 +12383,12 @@
         <v>1257</v>
       </c>
       <c r="B836" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B837" t="s">
         <v>1259</v>
@@ -12393,44 +12399,44 @@
         <v>1260</v>
       </c>
       <c r="B838" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B839" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B840" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B841" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B842" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B843" t="s">
         <v>1266</v>
@@ -12529,60 +12535,60 @@
         <v>1289</v>
       </c>
       <c r="B855" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B856" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B857" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B858" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B859" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B860" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B861" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B862" t="s">
         <v>1297</v>
@@ -12593,36 +12599,36 @@
         <v>1298</v>
       </c>
       <c r="B863" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B864" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B865" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B866" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B867" t="s">
         <v>1303</v>
@@ -12633,20 +12639,20 @@
         <v>1304</v>
       </c>
       <c r="B868" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B869" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B870" t="s">
         <v>1307</v>
@@ -12657,12 +12663,12 @@
         <v>1308</v>
       </c>
       <c r="B871" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B872" t="s">
         <v>1310</v>
@@ -12689,20 +12695,20 @@
         <v>1315</v>
       </c>
       <c r="B875" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B876" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B877" t="s">
         <v>1318</v>
@@ -12729,68 +12735,68 @@
         <v>1323</v>
       </c>
       <c r="B880" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B881" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B882" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B883" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B884" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B885" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B886" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B887" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B888" t="s">
         <v>1332</v>
@@ -12801,60 +12807,60 @@
         <v>1333</v>
       </c>
       <c r="B889" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B890" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B891" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B892" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B893" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B894" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B895" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B896" t="s">
         <v>1341</v>
@@ -12889,20 +12895,20 @@
         <v>1348</v>
       </c>
       <c r="B900" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B901" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B902" t="s">
         <v>1351</v>
@@ -12913,44 +12919,44 @@
         <v>1352</v>
       </c>
       <c r="B903" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B904" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B905" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B906" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B907" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B908" t="s">
         <v>1358</v>
@@ -12977,28 +12983,28 @@
         <v>1363</v>
       </c>
       <c r="B911" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B912" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B913" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B914" t="s">
         <v>1367</v>
@@ -13041,20 +13047,20 @@
         <v>1376</v>
       </c>
       <c r="B919" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B920" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B921" t="s">
         <v>1379</v>
@@ -13089,36 +13095,36 @@
         <v>1386</v>
       </c>
       <c r="B925" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B926" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B927" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B928" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B929" t="s">
         <v>1391</v>
@@ -13137,28 +13143,28 @@
         <v>1394</v>
       </c>
       <c r="B931" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B932" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B933" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B934" t="s">
         <v>1398</v>
@@ -13193,28 +13199,28 @@
         <v>1405</v>
       </c>
       <c r="B938" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B939" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B940" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B941" t="s">
         <v>1409</v>
@@ -13233,52 +13239,52 @@
         <v>1412</v>
       </c>
       <c r="B943" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B944" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B945" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B946" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B947" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B948" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B949" t="s">
         <v>1419</v>
@@ -13313,31 +13319,31 @@
         <v>1426</v>
       </c>
       <c r="B953" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B954" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B955" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B956" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -13353,20 +13359,20 @@
         <v>1433</v>
       </c>
       <c r="B958" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B959" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B960" t="s">
         <v>1436</v>
@@ -13385,36 +13391,36 @@
         <v>1439</v>
       </c>
       <c r="B962" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B963" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B964" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B965" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B966" t="s">
         <v>1444</v>
@@ -13473,12 +13479,12 @@
         <v>1457</v>
       </c>
       <c r="B973" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B974" t="s">
         <v>1459</v>
@@ -13489,68 +13495,68 @@
         <v>1460</v>
       </c>
       <c r="B975" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B976" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B977" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B978" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B979" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B980" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B981" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B982" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B983" t="s">
         <v>1469</v>
@@ -13569,28 +13575,28 @@
         <v>1472</v>
       </c>
       <c r="B985" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B986" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B987" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B988" t="s">
         <v>1476</v>
@@ -13601,20 +13607,20 @@
         <v>1477</v>
       </c>
       <c r="B989" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B990" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B991" t="s">
         <v>1480</v>
@@ -13633,28 +13639,28 @@
         <v>1483</v>
       </c>
       <c r="B993" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B994" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B995" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B996" t="s">
         <v>1487</v>
@@ -13689,28 +13695,28 @@
         <v>1494</v>
       </c>
       <c r="B1000" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1001" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1002" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1003" t="s">
         <v>1498</v>
@@ -13729,36 +13735,36 @@
         <v>1501</v>
       </c>
       <c r="B1005" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1006" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1007" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1008" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1009" t="s">
         <v>1506</v>
@@ -13777,60 +13783,60 @@
         <v>1509</v>
       </c>
       <c r="B1011" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1012" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1013" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1014" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1015" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1016" t="s">
-        <v>453</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1017" t="s">
-        <v>1515</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1018" t="s">
         <v>1517</v>
@@ -13857,12 +13863,12 @@
         <v>1522</v>
       </c>
       <c r="B1021" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1022" t="s">
         <v>1524</v>
@@ -13873,84 +13879,84 @@
         <v>1525</v>
       </c>
       <c r="B1023" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1024" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1025" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1026" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1027" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1028" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1029" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1030" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1031" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1032" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1033" t="s">
         <v>1536</v>
@@ -13961,12 +13967,12 @@
         <v>1537</v>
       </c>
       <c r="B1034" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1035" t="s">
         <v>1539</v>
@@ -14041,36 +14047,36 @@
         <v>1556</v>
       </c>
       <c r="B1044" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1045" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1046" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1047" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1048" t="s">
         <v>1561</v>
@@ -14233,28 +14239,28 @@
         <v>1600</v>
       </c>
       <c r="B1068" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1069" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1070" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1071" t="s">
         <v>1604</v>
@@ -14265,28 +14271,28 @@
         <v>1605</v>
       </c>
       <c r="B1072" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1073" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1074" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1075" t="s">
         <v>1609</v>
@@ -14297,44 +14303,44 @@
         <v>1610</v>
       </c>
       <c r="B1076" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1077" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1078" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1079" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1080" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1081" t="s">
         <v>1616</v>
@@ -14345,20 +14351,20 @@
         <v>1617</v>
       </c>
       <c r="B1082" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1083" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1084" t="s">
         <v>1620</v>
@@ -14385,12 +14391,12 @@
         <v>1625</v>
       </c>
       <c r="B1087" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1088" t="s">
         <v>1627</v>
@@ -14401,15 +14407,15 @@
         <v>1628</v>
       </c>
       <c r="B1089" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1629</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -14441,20 +14447,20 @@
         <v>1637</v>
       </c>
       <c r="B1094" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1095" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1096" t="s">
         <v>1640</v>
@@ -14473,68 +14479,68 @@
         <v>1643</v>
       </c>
       <c r="B1098" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1099" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1100" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1101" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1102" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1103" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1104" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1105" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1106" t="s">
         <v>1652</v>
@@ -14545,20 +14551,20 @@
         <v>1653</v>
       </c>
       <c r="B1107" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1108" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1109" t="s">
         <v>1656</v>
@@ -14633,12 +14639,12 @@
         <v>1673</v>
       </c>
       <c r="B1118" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1119" t="s">
         <v>1675</v>
@@ -14713,44 +14719,44 @@
         <v>1692</v>
       </c>
       <c r="B1128" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1129" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1130" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1131" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1132" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1133" t="s">
         <v>1698</v>
@@ -14769,36 +14775,36 @@
         <v>1701</v>
       </c>
       <c r="B1135" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1136" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1137" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1138" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1139" t="s">
         <v>1706</v>
@@ -14873,12 +14879,12 @@
         <v>1723</v>
       </c>
       <c r="B1148" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1149" t="s">
         <v>1725</v>
@@ -14913,76 +14919,76 @@
         <v>1732</v>
       </c>
       <c r="B1153" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1154" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1155" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1156" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1157" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1158" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1159" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1160" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1161" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1162" t="s">
         <v>1742</v>
@@ -14993,44 +14999,44 @@
         <v>1743</v>
       </c>
       <c r="B1163" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1164" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1165" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1166" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1167" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1168" t="s">
         <v>1749</v>
@@ -15041,12 +15047,12 @@
         <v>1750</v>
       </c>
       <c r="B1169" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1170" t="s">
         <v>1752</v>
@@ -15073,44 +15079,44 @@
         <v>1757</v>
       </c>
       <c r="B1173" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1174" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1175" t="s">
-        <v>698</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1176" t="s">
-        <v>1760</v>
+        <v>698</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1177" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1178" t="s">
         <v>1763</v>
@@ -15121,20 +15127,20 @@
         <v>1764</v>
       </c>
       <c r="B1179" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1180" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1181" t="s">
         <v>1767</v>
@@ -15156,8 +15162,16 @@
         <v>1771</v>
       </c>
     </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1773</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1776">
   <si>
     <t>en</t>
   </si>
@@ -1898,6 +1898,12 @@
   </si>
   <si>
     <t>Police (Arc-en-ciel)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Police de caractères (grès rouge ciselé)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5685,7 +5691,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9031,12 +9037,12 @@
         <v>629</v>
       </c>
       <c r="B417" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B418" t="s">
         <v>631</v>
@@ -9103,12 +9109,12 @@
         <v>646</v>
       </c>
       <c r="B426" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B427" t="s">
         <v>648</v>
@@ -9127,52 +9133,52 @@
         <v>651</v>
       </c>
       <c r="B429" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B430" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B431" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B432" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B433" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B434" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B435" t="s">
         <v>658</v>
@@ -9215,12 +9221,12 @@
         <v>667</v>
       </c>
       <c r="B440" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B441" t="s">
         <v>669</v>
@@ -9231,12 +9237,12 @@
         <v>670</v>
       </c>
       <c r="B442" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B443" t="s">
         <v>672</v>
@@ -9255,12 +9261,12 @@
         <v>675</v>
       </c>
       <c r="B445" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B446" t="s">
         <v>677</v>
@@ -9311,12 +9317,12 @@
         <v>688</v>
       </c>
       <c r="B452" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B453" t="s">
         <v>690</v>
@@ -9335,20 +9341,20 @@
         <v>693</v>
       </c>
       <c r="B455" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B456" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B457" t="s">
         <v>696</v>
@@ -9391,44 +9397,44 @@
         <v>705</v>
       </c>
       <c r="B462" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B463" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B464" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B465" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B466" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B467" t="s">
         <v>711</v>
@@ -9455,36 +9461,36 @@
         <v>716</v>
       </c>
       <c r="B470" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B471" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B472" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B473" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B474" t="s">
         <v>721</v>
@@ -9495,12 +9501,12 @@
         <v>722</v>
       </c>
       <c r="B475" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B476" t="s">
         <v>724</v>
@@ -9511,20 +9517,20 @@
         <v>725</v>
       </c>
       <c r="B477" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B478" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B479" t="s">
         <v>728</v>
@@ -9535,20 +9541,20 @@
         <v>729</v>
       </c>
       <c r="B480" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B481" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B482" t="s">
         <v>732</v>
@@ -9559,44 +9565,44 @@
         <v>733</v>
       </c>
       <c r="B483" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B484" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B485" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B486" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B487" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B488" t="s">
         <v>739</v>
@@ -9639,23 +9645,23 @@
         <v>748</v>
       </c>
       <c r="B493" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B494" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B495" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9759,12 +9765,12 @@
         <v>776</v>
       </c>
       <c r="B508" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B509" t="s">
         <v>778</v>
@@ -9783,12 +9789,12 @@
         <v>781</v>
       </c>
       <c r="B511" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B512" t="s">
         <v>783</v>
@@ -9799,12 +9805,12 @@
         <v>784</v>
       </c>
       <c r="B513" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B514" t="s">
         <v>786</v>
@@ -9831,20 +9837,20 @@
         <v>791</v>
       </c>
       <c r="B517" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B518" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B519" t="s">
         <v>794</v>
@@ -9959,28 +9965,28 @@
         <v>821</v>
       </c>
       <c r="B533" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B534" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B535" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B536" t="s">
         <v>825</v>
@@ -9991,52 +9997,52 @@
         <v>826</v>
       </c>
       <c r="B537" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B538" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B539" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B540" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B541" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B542" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B543" t="s">
         <v>833</v>
@@ -10047,12 +10053,12 @@
         <v>834</v>
       </c>
       <c r="B544" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B545" t="s">
         <v>836</v>
@@ -10071,60 +10077,60 @@
         <v>839</v>
       </c>
       <c r="B547" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B548" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B549" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B550" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B551" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B552" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B553" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B554" t="s">
         <v>847</v>
@@ -10183,20 +10189,20 @@
         <v>860</v>
       </c>
       <c r="B561" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B562" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B563" t="s">
         <v>863</v>
@@ -10223,12 +10229,12 @@
         <v>868</v>
       </c>
       <c r="B566" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B567" t="s">
         <v>870</v>
@@ -10247,12 +10253,12 @@
         <v>873</v>
       </c>
       <c r="B569" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B570" t="s">
         <v>875</v>
@@ -10279,44 +10285,44 @@
         <v>880</v>
       </c>
       <c r="B573" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B574" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B575" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B576" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B577" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B578" t="s">
         <v>886</v>
@@ -10335,12 +10341,12 @@
         <v>889</v>
       </c>
       <c r="B580" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B581" t="s">
         <v>891</v>
@@ -10351,12 +10357,12 @@
         <v>892</v>
       </c>
       <c r="B582" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B583" t="s">
         <v>894</v>
@@ -10391,20 +10397,20 @@
         <v>901</v>
       </c>
       <c r="B587" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B588" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B589" t="s">
         <v>904</v>
@@ -10423,12 +10429,12 @@
         <v>907</v>
       </c>
       <c r="B591" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B592" t="s">
         <v>909</v>
@@ -10439,12 +10445,12 @@
         <v>910</v>
       </c>
       <c r="B593" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B594" t="s">
         <v>912</v>
@@ -10495,20 +10501,20 @@
         <v>923</v>
       </c>
       <c r="B600" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B601" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B602" t="s">
         <v>926</v>
@@ -10519,20 +10525,20 @@
         <v>927</v>
       </c>
       <c r="B603" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B604" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B605" t="s">
         <v>930</v>
@@ -10543,20 +10549,20 @@
         <v>931</v>
       </c>
       <c r="B606" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B607" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B608" t="s">
         <v>934</v>
@@ -10567,52 +10573,52 @@
         <v>935</v>
       </c>
       <c r="B609" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B610" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B611" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B612" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B613" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B614" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B615" t="s">
         <v>942</v>
@@ -10623,12 +10629,12 @@
         <v>943</v>
       </c>
       <c r="B616" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B617" t="s">
         <v>945</v>
@@ -10647,20 +10653,20 @@
         <v>948</v>
       </c>
       <c r="B619" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B620" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B621" t="s">
         <v>951</v>
@@ -10671,172 +10677,172 @@
         <v>952</v>
       </c>
       <c r="B622" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B623" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B624" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B625" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B626" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B627" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B628" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B629" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B630" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B631" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B632" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B633" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B634" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B635" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B636" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B637" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B638" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B639" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B640" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B641" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B642" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B643" t="s">
         <v>974</v>
@@ -10871,12 +10877,12 @@
         <v>981</v>
       </c>
       <c r="B647" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B648" t="s">
         <v>983</v>
@@ -10887,12 +10893,12 @@
         <v>984</v>
       </c>
       <c r="B649" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B650" t="s">
         <v>986</v>
@@ -10903,20 +10909,20 @@
         <v>987</v>
       </c>
       <c r="B651" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B652" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B653" t="s">
         <v>990</v>
@@ -10927,28 +10933,28 @@
         <v>991</v>
       </c>
       <c r="B654" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B655" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B656" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B657" t="s">
         <v>995</v>
@@ -10959,12 +10965,12 @@
         <v>996</v>
       </c>
       <c r="B658" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B659" t="s">
         <v>998</v>
@@ -10999,28 +11005,28 @@
         <v>1005</v>
       </c>
       <c r="B663" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B664" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B665" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B666" t="s">
         <v>1009</v>
@@ -11055,20 +11061,20 @@
         <v>1016</v>
       </c>
       <c r="B670" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B671" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B672" t="s">
         <v>1019</v>
@@ -11079,36 +11085,36 @@
         <v>1020</v>
       </c>
       <c r="B673" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B674" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B675" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B676" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B677" t="s">
         <v>1025</v>
@@ -11127,28 +11133,28 @@
         <v>1028</v>
       </c>
       <c r="B679" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B680" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B681" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B682" t="s">
         <v>1032</v>
@@ -11167,12 +11173,12 @@
         <v>1035</v>
       </c>
       <c r="B684" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B685" t="s">
         <v>1037</v>
@@ -11207,12 +11213,12 @@
         <v>1044</v>
       </c>
       <c r="B689" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B690" t="s">
         <v>1046</v>
@@ -11231,12 +11237,12 @@
         <v>1049</v>
       </c>
       <c r="B692" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B693" t="s">
         <v>1051</v>
@@ -11279,36 +11285,36 @@
         <v>1060</v>
       </c>
       <c r="B698" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B699" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B700" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B701" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B702" t="s">
         <v>1065</v>
@@ -11319,36 +11325,36 @@
         <v>1066</v>
       </c>
       <c r="B703" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B704" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B705" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B706" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B707" t="s">
         <v>1071</v>
@@ -11359,36 +11365,36 @@
         <v>1072</v>
       </c>
       <c r="B708" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B709" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B710" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B711" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B712" t="s">
         <v>1077</v>
@@ -11407,68 +11413,68 @@
         <v>1080</v>
       </c>
       <c r="B714" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B715" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B716" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B717" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B718" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B719" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B720" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B721" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B722" t="s">
         <v>1089</v>
@@ -11503,12 +11509,12 @@
         <v>1096</v>
       </c>
       <c r="B726" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B727" t="s">
         <v>1098</v>
@@ -11519,20 +11525,20 @@
         <v>1099</v>
       </c>
       <c r="B728" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B729" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B730" t="s">
         <v>1102</v>
@@ -11567,60 +11573,60 @@
         <v>1109</v>
       </c>
       <c r="B734" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B735" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B736" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B737" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B738" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B739" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B740" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B741" t="s">
         <v>1117</v>
@@ -11647,28 +11653,28 @@
         <v>1122</v>
       </c>
       <c r="B744" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B745" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B746" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B747" t="s">
         <v>1126</v>
@@ -11695,12 +11701,12 @@
         <v>1131</v>
       </c>
       <c r="B750" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B751" t="s">
         <v>1133</v>
@@ -11727,12 +11733,12 @@
         <v>1138</v>
       </c>
       <c r="B754" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B755" t="s">
         <v>1140</v>
@@ -11759,12 +11765,12 @@
         <v>1145</v>
       </c>
       <c r="B758" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B759" t="s">
         <v>1147</v>
@@ -11775,20 +11781,20 @@
         <v>1148</v>
       </c>
       <c r="B760" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B761" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B762" t="s">
         <v>1151</v>
@@ -11855,36 +11861,36 @@
         <v>1166</v>
       </c>
       <c r="B770" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B771" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B772" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B773" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B774" t="s">
         <v>1171</v>
@@ -11895,12 +11901,12 @@
         <v>1172</v>
       </c>
       <c r="B775" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B776" t="s">
         <v>1174</v>
@@ -11943,28 +11949,28 @@
         <v>1183</v>
       </c>
       <c r="B781" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B782" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B783" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B784" t="s">
         <v>1187</v>
@@ -11983,12 +11989,12 @@
         <v>1190</v>
       </c>
       <c r="B786" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B787" t="s">
         <v>1192</v>
@@ -11999,92 +12005,92 @@
         <v>1193</v>
       </c>
       <c r="B788" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B789" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B790" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B791" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B792" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B793" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B794" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B795" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B796" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B797" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B798" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B799" t="s">
         <v>1205</v>
@@ -12135,36 +12141,36 @@
         <v>1216</v>
       </c>
       <c r="B805" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B806" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B807" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B808" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B809" t="s">
         <v>1221</v>
@@ -12183,44 +12189,44 @@
         <v>1224</v>
       </c>
       <c r="B811" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B812" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B813" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B814" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B815" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B816" t="s">
         <v>1230</v>
@@ -12231,12 +12237,12 @@
         <v>1231</v>
       </c>
       <c r="B817" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B818" t="s">
         <v>1233</v>
@@ -12247,12 +12253,12 @@
         <v>1234</v>
       </c>
       <c r="B819" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B820" t="s">
         <v>1236</v>
@@ -12263,12 +12269,12 @@
         <v>1237</v>
       </c>
       <c r="B821" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B822" t="s">
         <v>1239</v>
@@ -12279,12 +12285,12 @@
         <v>1240</v>
       </c>
       <c r="B823" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B824" t="s">
         <v>1242</v>
@@ -12295,28 +12301,28 @@
         <v>1243</v>
       </c>
       <c r="B825" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B826" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B827" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B828" t="s">
         <v>1247</v>
@@ -12327,36 +12333,36 @@
         <v>1248</v>
       </c>
       <c r="B829" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B830" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B831" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B832" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B833" t="s">
         <v>1253</v>
@@ -12375,12 +12381,12 @@
         <v>1256</v>
       </c>
       <c r="B835" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B836" t="s">
         <v>1258</v>
@@ -12391,12 +12397,12 @@
         <v>1259</v>
       </c>
       <c r="B837" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B838" t="s">
         <v>1261</v>
@@ -12407,44 +12413,44 @@
         <v>1262</v>
       </c>
       <c r="B839" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B840" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B841" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B842" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B843" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B844" t="s">
         <v>1268</v>
@@ -12543,60 +12549,60 @@
         <v>1291</v>
       </c>
       <c r="B856" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B857" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B858" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B859" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B860" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B861" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B862" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B863" t="s">
         <v>1299</v>
@@ -12607,36 +12613,36 @@
         <v>1300</v>
       </c>
       <c r="B864" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B865" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B866" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B867" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B868" t="s">
         <v>1305</v>
@@ -12647,20 +12653,20 @@
         <v>1306</v>
       </c>
       <c r="B869" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B870" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B871" t="s">
         <v>1309</v>
@@ -12671,12 +12677,12 @@
         <v>1310</v>
       </c>
       <c r="B872" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B873" t="s">
         <v>1312</v>
@@ -12703,20 +12709,20 @@
         <v>1317</v>
       </c>
       <c r="B876" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B877" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B878" t="s">
         <v>1320</v>
@@ -12743,68 +12749,68 @@
         <v>1325</v>
       </c>
       <c r="B881" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B882" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B883" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B884" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B885" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B886" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B887" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B888" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B889" t="s">
         <v>1334</v>
@@ -12815,60 +12821,60 @@
         <v>1335</v>
       </c>
       <c r="B890" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B891" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B892" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B893" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B894" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B895" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B896" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B897" t="s">
         <v>1343</v>
@@ -12903,20 +12909,20 @@
         <v>1350</v>
       </c>
       <c r="B901" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B902" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B903" t="s">
         <v>1353</v>
@@ -12927,44 +12933,44 @@
         <v>1354</v>
       </c>
       <c r="B904" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B905" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B906" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B907" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B908" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B909" t="s">
         <v>1360</v>
@@ -12991,28 +12997,28 @@
         <v>1365</v>
       </c>
       <c r="B912" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B913" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B914" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B915" t="s">
         <v>1369</v>
@@ -13055,20 +13061,20 @@
         <v>1378</v>
       </c>
       <c r="B920" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B921" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B922" t="s">
         <v>1381</v>
@@ -13103,36 +13109,36 @@
         <v>1388</v>
       </c>
       <c r="B926" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B927" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B928" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B929" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B930" t="s">
         <v>1393</v>
@@ -13151,28 +13157,28 @@
         <v>1396</v>
       </c>
       <c r="B932" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B933" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B934" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B935" t="s">
         <v>1400</v>
@@ -13207,28 +13213,28 @@
         <v>1407</v>
       </c>
       <c r="B939" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B940" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B941" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B942" t="s">
         <v>1411</v>
@@ -13247,52 +13253,52 @@
         <v>1414</v>
       </c>
       <c r="B944" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B945" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B946" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B947" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B948" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B949" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B950" t="s">
         <v>1421</v>
@@ -13327,31 +13333,31 @@
         <v>1428</v>
       </c>
       <c r="B954" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B955" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B956" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B957" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -13367,20 +13373,20 @@
         <v>1435</v>
       </c>
       <c r="B959" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B960" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B961" t="s">
         <v>1438</v>
@@ -13399,36 +13405,36 @@
         <v>1441</v>
       </c>
       <c r="B963" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B964" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B965" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B966" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B967" t="s">
         <v>1446</v>
@@ -13487,12 +13493,12 @@
         <v>1459</v>
       </c>
       <c r="B974" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B975" t="s">
         <v>1461</v>
@@ -13503,68 +13509,68 @@
         <v>1462</v>
       </c>
       <c r="B976" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B977" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B978" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B979" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B980" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B981" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B982" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B983" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B984" t="s">
         <v>1471</v>
@@ -13583,28 +13589,28 @@
         <v>1474</v>
       </c>
       <c r="B986" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B987" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B988" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B989" t="s">
         <v>1478</v>
@@ -13615,20 +13621,20 @@
         <v>1479</v>
       </c>
       <c r="B990" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B991" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B992" t="s">
         <v>1482</v>
@@ -13647,28 +13653,28 @@
         <v>1485</v>
       </c>
       <c r="B994" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B995" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B996" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B997" t="s">
         <v>1489</v>
@@ -13703,28 +13709,28 @@
         <v>1496</v>
       </c>
       <c r="B1001" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1002" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1003" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1004" t="s">
         <v>1500</v>
@@ -13743,36 +13749,36 @@
         <v>1503</v>
       </c>
       <c r="B1006" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1007" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1008" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1009" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1010" t="s">
         <v>1508</v>
@@ -13791,60 +13797,60 @@
         <v>1511</v>
       </c>
       <c r="B1012" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1013" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1014" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1015" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1016" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1017" t="s">
-        <v>453</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1018" t="s">
-        <v>1517</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1019" t="s">
         <v>1519</v>
@@ -13871,12 +13877,12 @@
         <v>1524</v>
       </c>
       <c r="B1022" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1023" t="s">
         <v>1526</v>
@@ -13887,84 +13893,84 @@
         <v>1527</v>
       </c>
       <c r="B1024" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1025" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1026" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1027" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1028" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1029" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1030" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1031" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1032" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1033" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1034" t="s">
         <v>1538</v>
@@ -13975,12 +13981,12 @@
         <v>1539</v>
       </c>
       <c r="B1035" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B1036" t="s">
         <v>1541</v>
@@ -14055,36 +14061,36 @@
         <v>1558</v>
       </c>
       <c r="B1045" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1046" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1047" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1048" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1049" t="s">
         <v>1563</v>
@@ -14247,28 +14253,28 @@
         <v>1602</v>
       </c>
       <c r="B1069" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1070" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1071" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1072" t="s">
         <v>1606</v>
@@ -14279,28 +14285,28 @@
         <v>1607</v>
       </c>
       <c r="B1073" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1074" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1075" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1076" t="s">
         <v>1611</v>
@@ -14311,44 +14317,44 @@
         <v>1612</v>
       </c>
       <c r="B1077" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1078" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1079" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1080" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1081" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1082" t="s">
         <v>1618</v>
@@ -14359,20 +14365,20 @@
         <v>1619</v>
       </c>
       <c r="B1083" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1084" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1085" t="s">
         <v>1622</v>
@@ -14399,12 +14405,12 @@
         <v>1627</v>
       </c>
       <c r="B1088" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1089" t="s">
         <v>1629</v>
@@ -14415,15 +14421,15 @@
         <v>1630</v>
       </c>
       <c r="B1090" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1631</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -14455,20 +14461,20 @@
         <v>1639</v>
       </c>
       <c r="B1095" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1096" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1097" t="s">
         <v>1642</v>
@@ -14487,68 +14493,68 @@
         <v>1645</v>
       </c>
       <c r="B1099" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1100" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1101" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1102" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1103" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1104" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1105" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1106" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1107" t="s">
         <v>1654</v>
@@ -14559,20 +14565,20 @@
         <v>1655</v>
       </c>
       <c r="B1108" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1109" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1110" t="s">
         <v>1658</v>
@@ -14647,12 +14653,12 @@
         <v>1675</v>
       </c>
       <c r="B1119" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1120" t="s">
         <v>1677</v>
@@ -14727,44 +14733,44 @@
         <v>1694</v>
       </c>
       <c r="B1129" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1130" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1131" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1132" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1133" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1134" t="s">
         <v>1700</v>
@@ -14783,36 +14789,36 @@
         <v>1703</v>
       </c>
       <c r="B1136" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1137" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1138" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1139" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1140" t="s">
         <v>1708</v>
@@ -14887,12 +14893,12 @@
         <v>1725</v>
       </c>
       <c r="B1149" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1150" t="s">
         <v>1727</v>
@@ -14927,76 +14933,76 @@
         <v>1734</v>
       </c>
       <c r="B1154" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1155" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1156" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1157" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1158" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1159" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1160" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1161" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1162" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1163" t="s">
         <v>1744</v>
@@ -15007,44 +15013,44 @@
         <v>1745</v>
       </c>
       <c r="B1164" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1165" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1166" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1167" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1168" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1169" t="s">
         <v>1751</v>
@@ -15055,12 +15061,12 @@
         <v>1752</v>
       </c>
       <c r="B1170" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1171" t="s">
         <v>1754</v>
@@ -15087,44 +15093,44 @@
         <v>1759</v>
       </c>
       <c r="B1174" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1175" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1176" t="s">
-        <v>698</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1177" t="s">
-        <v>1762</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1178" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1179" t="s">
         <v>1765</v>
@@ -15135,20 +15141,20 @@
         <v>1766</v>
       </c>
       <c r="B1180" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1181" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1182" t="s">
         <v>1769</v>
@@ -15170,8 +15176,16 @@
         <v>1773</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1775</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1778">
   <si>
     <t>en</t>
   </si>
@@ -4958,6 +4958,12 @@
   </si>
   <si>
     <t>Forêt du crépuscule</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Pays des merveilles tordues</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5691,7 +5697,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14501,68 +14507,68 @@
         <v>1647</v>
       </c>
       <c r="B1100" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1101" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1102" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1103" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1104" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1105" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1106" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1107" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1108" t="s">
         <v>1656</v>
@@ -14573,20 +14579,20 @@
         <v>1657</v>
       </c>
       <c r="B1109" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1110" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1111" t="s">
         <v>1660</v>
@@ -14661,12 +14667,12 @@
         <v>1677</v>
       </c>
       <c r="B1120" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1121" t="s">
         <v>1679</v>
@@ -14741,44 +14747,44 @@
         <v>1696</v>
       </c>
       <c r="B1130" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1131" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1132" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1133" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1134" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1135" t="s">
         <v>1702</v>
@@ -14797,36 +14803,36 @@
         <v>1705</v>
       </c>
       <c r="B1137" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1138" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1139" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1140" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1141" t="s">
         <v>1710</v>
@@ -14901,12 +14907,12 @@
         <v>1727</v>
       </c>
       <c r="B1150" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1151" t="s">
         <v>1729</v>
@@ -14941,76 +14947,76 @@
         <v>1736</v>
       </c>
       <c r="B1155" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1156" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1157" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1158" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1159" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1160" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1161" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1162" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1163" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1164" t="s">
         <v>1746</v>
@@ -15021,44 +15027,44 @@
         <v>1747</v>
       </c>
       <c r="B1165" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1166" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1167" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1168" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1169" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1170" t="s">
         <v>1753</v>
@@ -15069,12 +15075,12 @@
         <v>1754</v>
       </c>
       <c r="B1171" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1172" t="s">
         <v>1756</v>
@@ -15101,44 +15107,44 @@
         <v>1761</v>
       </c>
       <c r="B1175" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1176" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1177" t="s">
-        <v>700</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1178" t="s">
-        <v>1764</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1179" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1180" t="s">
         <v>1767</v>
@@ -15149,20 +15155,20 @@
         <v>1768</v>
       </c>
       <c r="B1181" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1182" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1183" t="s">
         <v>1771</v>
@@ -15184,8 +15190,16 @@
         <v>1775</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1777</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1779">
   <si>
     <t>en</t>
   </si>
@@ -2702,6 +2702,9 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5697,7 +5700,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10379,36 +10382,36 @@
         <v>895</v>
       </c>
       <c r="B584" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
+        <v>896</v>
+      </c>
+      <c r="B585" t="s">
         <v>897</v>
-      </c>
-      <c r="B585" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
+        <v>898</v>
+      </c>
+      <c r="B586" t="s">
         <v>899</v>
-      </c>
-      <c r="B586" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
+        <v>900</v>
+      </c>
+      <c r="B587" t="s">
         <v>901</v>
-      </c>
-      <c r="B587" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B588" t="s">
         <v>903</v>
@@ -10427,20 +10430,20 @@
         <v>905</v>
       </c>
       <c r="B590" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
+        <v>906</v>
+      </c>
+      <c r="B591" t="s">
         <v>907</v>
-      </c>
-      <c r="B591" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B592" t="s">
         <v>909</v>
@@ -10451,12 +10454,12 @@
         <v>910</v>
       </c>
       <c r="B593" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B594" t="s">
         <v>912</v>
@@ -10467,52 +10470,52 @@
         <v>913</v>
       </c>
       <c r="B595" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
+        <v>914</v>
+      </c>
+      <c r="B596" t="s">
         <v>915</v>
-      </c>
-      <c r="B596" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
+        <v>916</v>
+      </c>
+      <c r="B597" t="s">
         <v>917</v>
-      </c>
-      <c r="B597" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
+        <v>918</v>
+      </c>
+      <c r="B598" t="s">
         <v>919</v>
-      </c>
-      <c r="B598" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
+        <v>920</v>
+      </c>
+      <c r="B599" t="s">
         <v>921</v>
-      </c>
-      <c r="B599" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
+        <v>922</v>
+      </c>
+      <c r="B600" t="s">
         <v>923</v>
-      </c>
-      <c r="B600" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B601" t="s">
         <v>925</v>
@@ -10531,12 +10534,12 @@
         <v>927</v>
       </c>
       <c r="B603" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B604" t="s">
         <v>929</v>
@@ -10555,12 +10558,12 @@
         <v>931</v>
       </c>
       <c r="B606" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B607" t="s">
         <v>933</v>
@@ -10579,12 +10582,12 @@
         <v>935</v>
       </c>
       <c r="B609" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B610" t="s">
         <v>937</v>
@@ -10635,12 +10638,12 @@
         <v>943</v>
       </c>
       <c r="B616" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B617" t="s">
         <v>945</v>
@@ -10651,20 +10654,20 @@
         <v>946</v>
       </c>
       <c r="B618" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
+        <v>947</v>
+      </c>
+      <c r="B619" t="s">
         <v>948</v>
-      </c>
-      <c r="B619" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B620" t="s">
         <v>950</v>
@@ -10683,12 +10686,12 @@
         <v>952</v>
       </c>
       <c r="B622" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B623" t="s">
         <v>954</v>
@@ -10859,36 +10862,36 @@
         <v>975</v>
       </c>
       <c r="B644" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
+        <v>976</v>
+      </c>
+      <c r="B645" t="s">
         <v>977</v>
-      </c>
-      <c r="B645" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
+        <v>978</v>
+      </c>
+      <c r="B646" t="s">
         <v>979</v>
-      </c>
-      <c r="B646" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
+        <v>980</v>
+      </c>
+      <c r="B647" t="s">
         <v>981</v>
-      </c>
-      <c r="B647" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B648" t="s">
         <v>983</v>
@@ -10899,12 +10902,12 @@
         <v>984</v>
       </c>
       <c r="B649" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B650" t="s">
         <v>986</v>
@@ -10915,12 +10918,12 @@
         <v>987</v>
       </c>
       <c r="B651" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B652" t="s">
         <v>989</v>
@@ -10939,12 +10942,12 @@
         <v>991</v>
       </c>
       <c r="B654" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B655" t="s">
         <v>993</v>
@@ -10971,12 +10974,12 @@
         <v>996</v>
       </c>
       <c r="B658" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B659" t="s">
         <v>998</v>
@@ -10987,36 +10990,36 @@
         <v>999</v>
       </c>
       <c r="B660" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B661" t="s">
         <v>1001</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B662" t="s">
         <v>1003</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B663" t="s">
         <v>1005</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B664" t="s">
         <v>1007</v>
@@ -11043,36 +11046,36 @@
         <v>1010</v>
       </c>
       <c r="B667" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B668" t="s">
         <v>1012</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B669" t="s">
         <v>1014</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B670" t="s">
         <v>1016</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B671" t="s">
         <v>1018</v>
@@ -11091,12 +11094,12 @@
         <v>1020</v>
       </c>
       <c r="B673" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B674" t="s">
         <v>1022</v>
@@ -11131,20 +11134,20 @@
         <v>1026</v>
       </c>
       <c r="B678" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B679" t="s">
         <v>1028</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B680" t="s">
         <v>1030</v>
@@ -11171,20 +11174,20 @@
         <v>1033</v>
       </c>
       <c r="B683" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B684" t="s">
         <v>1035</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B685" t="s">
         <v>1037</v>
@@ -11195,36 +11198,36 @@
         <v>1038</v>
       </c>
       <c r="B686" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B687" t="s">
         <v>1040</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B688" t="s">
         <v>1042</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B689" t="s">
         <v>1044</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B690" t="s">
         <v>1046</v>
@@ -11235,20 +11238,20 @@
         <v>1047</v>
       </c>
       <c r="B691" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B692" t="s">
         <v>1049</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B693" t="s">
         <v>1051</v>
@@ -11259,44 +11262,44 @@
         <v>1052</v>
       </c>
       <c r="B694" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B695" t="s">
         <v>1054</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B696" t="s">
         <v>1056</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B697" t="s">
         <v>1058</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B698" t="s">
         <v>1060</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B699" t="s">
         <v>1062</v>
@@ -11331,12 +11334,12 @@
         <v>1066</v>
       </c>
       <c r="B703" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B704" t="s">
         <v>1068</v>
@@ -11371,12 +11374,12 @@
         <v>1072</v>
       </c>
       <c r="B708" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B709" t="s">
         <v>1074</v>
@@ -11411,20 +11414,20 @@
         <v>1078</v>
       </c>
       <c r="B713" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B714" t="s">
         <v>1080</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B715" t="s">
         <v>1082</v>
@@ -11491,36 +11494,36 @@
         <v>1090</v>
       </c>
       <c r="B723" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B724" t="s">
         <v>1092</v>
-      </c>
-      <c r="B724" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B725" t="s">
         <v>1094</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B726" t="s">
         <v>1096</v>
-      </c>
-      <c r="B726" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B727" t="s">
         <v>1098</v>
@@ -11531,12 +11534,12 @@
         <v>1099</v>
       </c>
       <c r="B728" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B729" t="s">
         <v>1101</v>
@@ -11555,36 +11558,36 @@
         <v>1103</v>
       </c>
       <c r="B731" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B732" t="s">
         <v>1105</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B733" t="s">
         <v>1107</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B734" t="s">
         <v>1109</v>
-      </c>
-      <c r="B734" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B735" t="s">
         <v>1111</v>
@@ -11643,28 +11646,28 @@
         <v>1118</v>
       </c>
       <c r="B742" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B743" t="s">
         <v>1120</v>
-      </c>
-      <c r="B743" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B744" t="s">
         <v>1122</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B745" t="s">
         <v>1124</v>
@@ -11691,28 +11694,28 @@
         <v>1127</v>
       </c>
       <c r="B748" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B749" t="s">
         <v>1129</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B750" t="s">
         <v>1131</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B751" t="s">
         <v>1133</v>
@@ -11723,28 +11726,28 @@
         <v>1134</v>
       </c>
       <c r="B752" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B753" t="s">
         <v>1136</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B754" t="s">
         <v>1138</v>
-      </c>
-      <c r="B754" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B755" t="s">
         <v>1140</v>
@@ -11755,28 +11758,28 @@
         <v>1141</v>
       </c>
       <c r="B756" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B757" t="s">
         <v>1143</v>
-      </c>
-      <c r="B757" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B758" t="s">
         <v>1145</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B759" t="s">
         <v>1147</v>
@@ -11787,12 +11790,12 @@
         <v>1148</v>
       </c>
       <c r="B760" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B761" t="s">
         <v>1150</v>
@@ -11811,68 +11814,68 @@
         <v>1152</v>
       </c>
       <c r="B763" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B764" t="s">
         <v>1154</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B765" t="s">
         <v>1156</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B766" t="s">
         <v>1158</v>
-      </c>
-      <c r="B766" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B767" t="s">
         <v>1160</v>
-      </c>
-      <c r="B767" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B768" t="s">
         <v>1162</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B769" t="s">
         <v>1164</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B770" t="s">
         <v>1166</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B771" t="s">
         <v>1168</v>
@@ -11907,12 +11910,12 @@
         <v>1172</v>
       </c>
       <c r="B775" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B776" t="s">
         <v>1174</v>
@@ -11923,44 +11926,44 @@
         <v>1175</v>
       </c>
       <c r="B777" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B778" t="s">
         <v>1177</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B779" t="s">
         <v>1179</v>
-      </c>
-      <c r="B779" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B780" t="s">
         <v>1181</v>
-      </c>
-      <c r="B780" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B781" t="s">
         <v>1183</v>
-      </c>
-      <c r="B781" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B782" t="s">
         <v>1185</v>
@@ -11987,20 +11990,20 @@
         <v>1188</v>
       </c>
       <c r="B785" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B786" t="s">
         <v>1190</v>
-      </c>
-      <c r="B786" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B787" t="s">
         <v>1192</v>
@@ -12011,12 +12014,12 @@
         <v>1193</v>
       </c>
       <c r="B788" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B789" t="s">
         <v>1195</v>
@@ -12107,52 +12110,52 @@
         <v>1206</v>
       </c>
       <c r="B800" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B801" t="s">
         <v>1208</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B802" t="s">
         <v>1210</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B803" t="s">
         <v>1212</v>
-      </c>
-      <c r="B803" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B804" t="s">
         <v>1214</v>
-      </c>
-      <c r="B804" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B805" t="s">
         <v>1216</v>
-      </c>
-      <c r="B805" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B806" t="s">
         <v>1218</v>
@@ -12187,20 +12190,20 @@
         <v>1222</v>
       </c>
       <c r="B810" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B811" t="s">
         <v>1224</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B812" t="s">
         <v>1226</v>
@@ -12243,12 +12246,12 @@
         <v>1231</v>
       </c>
       <c r="B817" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B818" t="s">
         <v>1233</v>
@@ -12259,12 +12262,12 @@
         <v>1234</v>
       </c>
       <c r="B819" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B820" t="s">
         <v>1236</v>
@@ -12275,12 +12278,12 @@
         <v>1237</v>
       </c>
       <c r="B821" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B822" t="s">
         <v>1239</v>
@@ -12291,12 +12294,12 @@
         <v>1240</v>
       </c>
       <c r="B823" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B824" t="s">
         <v>1242</v>
@@ -12307,12 +12310,12 @@
         <v>1243</v>
       </c>
       <c r="B825" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B826" t="s">
         <v>1245</v>
@@ -12339,12 +12342,12 @@
         <v>1248</v>
       </c>
       <c r="B829" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B830" t="s">
         <v>1250</v>
@@ -12379,20 +12382,20 @@
         <v>1254</v>
       </c>
       <c r="B834" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B835" t="s">
         <v>1256</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B836" t="s">
         <v>1258</v>
@@ -12403,12 +12406,12 @@
         <v>1259</v>
       </c>
       <c r="B837" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B838" t="s">
         <v>1261</v>
@@ -12419,12 +12422,12 @@
         <v>1262</v>
       </c>
       <c r="B839" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B840" t="s">
         <v>1264</v>
@@ -12467,100 +12470,100 @@
         <v>1269</v>
       </c>
       <c r="B845" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B846" t="s">
         <v>1271</v>
-      </c>
-      <c r="B846" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B847" t="s">
         <v>1273</v>
-      </c>
-      <c r="B847" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B848" t="s">
         <v>1275</v>
-      </c>
-      <c r="B848" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B849" t="s">
         <v>1277</v>
-      </c>
-      <c r="B849" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B850" t="s">
         <v>1279</v>
-      </c>
-      <c r="B850" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B851" t="s">
         <v>1281</v>
-      </c>
-      <c r="B851" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B852" t="s">
         <v>1283</v>
-      </c>
-      <c r="B852" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B853" t="s">
         <v>1285</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B854" t="s">
         <v>1287</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B855" t="s">
         <v>1289</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B856" t="s">
         <v>1291</v>
-      </c>
-      <c r="B856" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B857" t="s">
         <v>1293</v>
@@ -12619,12 +12622,12 @@
         <v>1300</v>
       </c>
       <c r="B864" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B865" t="s">
         <v>1302</v>
@@ -12659,12 +12662,12 @@
         <v>1306</v>
       </c>
       <c r="B869" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B870" t="s">
         <v>1308</v>
@@ -12683,12 +12686,12 @@
         <v>1310</v>
       </c>
       <c r="B872" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B873" t="s">
         <v>1312</v>
@@ -12699,28 +12702,28 @@
         <v>1313</v>
       </c>
       <c r="B874" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B875" t="s">
         <v>1315</v>
-      </c>
-      <c r="B875" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B876" t="s">
         <v>1317</v>
-      </c>
-      <c r="B876" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B877" t="s">
         <v>1319</v>
@@ -12739,28 +12742,28 @@
         <v>1321</v>
       </c>
       <c r="B879" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B880" t="s">
         <v>1323</v>
-      </c>
-      <c r="B880" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B881" t="s">
         <v>1325</v>
-      </c>
-      <c r="B881" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B882" t="s">
         <v>1327</v>
@@ -12827,12 +12830,12 @@
         <v>1335</v>
       </c>
       <c r="B890" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B891" t="s">
         <v>1337</v>
@@ -12891,36 +12894,36 @@
         <v>1344</v>
       </c>
       <c r="B898" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B899" t="s">
         <v>1346</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B900" t="s">
         <v>1348</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B901" t="s">
         <v>1350</v>
-      </c>
-      <c r="B901" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B902" t="s">
         <v>1352</v>
@@ -12939,12 +12942,12 @@
         <v>1354</v>
       </c>
       <c r="B904" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B905" t="s">
         <v>1356</v>
@@ -12987,28 +12990,28 @@
         <v>1361</v>
       </c>
       <c r="B910" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B911" t="s">
         <v>1363</v>
-      </c>
-      <c r="B911" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B912" t="s">
         <v>1365</v>
-      </c>
-      <c r="B912" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B913" t="s">
         <v>1367</v>
@@ -13035,44 +13038,44 @@
         <v>1370</v>
       </c>
       <c r="B916" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B917" t="s">
         <v>1372</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B918" t="s">
         <v>1374</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B919" t="s">
         <v>1376</v>
-      </c>
-      <c r="B919" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B920" t="s">
         <v>1378</v>
-      </c>
-      <c r="B920" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B921" t="s">
         <v>1380</v>
@@ -13091,36 +13094,36 @@
         <v>1382</v>
       </c>
       <c r="B923" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B924" t="s">
         <v>1384</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B925" t="s">
         <v>1386</v>
-      </c>
-      <c r="B925" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B926" t="s">
         <v>1388</v>
-      </c>
-      <c r="B926" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B927" t="s">
         <v>1390</v>
@@ -13155,20 +13158,20 @@
         <v>1394</v>
       </c>
       <c r="B931" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B932" t="s">
         <v>1396</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B933" t="s">
         <v>1398</v>
@@ -13195,36 +13198,36 @@
         <v>1401</v>
       </c>
       <c r="B936" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B937" t="s">
         <v>1403</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B938" t="s">
         <v>1405</v>
-      </c>
-      <c r="B938" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B939" t="s">
         <v>1407</v>
-      </c>
-      <c r="B939" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B940" t="s">
         <v>1409</v>
@@ -13251,20 +13254,20 @@
         <v>1412</v>
       </c>
       <c r="B943" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B944" t="s">
         <v>1414</v>
-      </c>
-      <c r="B944" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B945" t="s">
         <v>1416</v>
@@ -13315,36 +13318,36 @@
         <v>1422</v>
       </c>
       <c r="B951" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B952" t="s">
         <v>1424</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B953" t="s">
         <v>1426</v>
-      </c>
-      <c r="B953" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B954" t="s">
         <v>1428</v>
-      </c>
-      <c r="B954" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B955" t="s">
         <v>1430</v>
@@ -13363,7 +13366,7 @@
         <v>1432</v>
       </c>
       <c r="B957" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -13371,20 +13374,20 @@
         <v>1433</v>
       </c>
       <c r="B958" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B959" t="s">
         <v>1435</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B960" t="s">
         <v>1437</v>
@@ -13403,20 +13406,20 @@
         <v>1439</v>
       </c>
       <c r="B962" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B963" t="s">
         <v>1441</v>
-      </c>
-      <c r="B963" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B964" t="s">
         <v>1443</v>
@@ -13451,60 +13454,60 @@
         <v>1447</v>
       </c>
       <c r="B968" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B969" t="s">
         <v>1449</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B970" t="s">
         <v>1451</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B971" t="s">
         <v>1453</v>
-      </c>
-      <c r="B971" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B972" t="s">
         <v>1455</v>
-      </c>
-      <c r="B972" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B973" t="s">
         <v>1457</v>
-      </c>
-      <c r="B973" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B974" t="s">
         <v>1459</v>
-      </c>
-      <c r="B974" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B975" t="s">
         <v>1461</v>
@@ -13515,12 +13518,12 @@
         <v>1462</v>
       </c>
       <c r="B976" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B977" t="s">
         <v>1464</v>
@@ -13587,20 +13590,20 @@
         <v>1472</v>
       </c>
       <c r="B985" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B986" t="s">
         <v>1474</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B987" t="s">
         <v>1476</v>
@@ -13627,12 +13630,12 @@
         <v>1479</v>
       </c>
       <c r="B990" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B991" t="s">
         <v>1481</v>
@@ -13651,20 +13654,20 @@
         <v>1483</v>
       </c>
       <c r="B993" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B994" t="s">
         <v>1485</v>
-      </c>
-      <c r="B994" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B995" t="s">
         <v>1487</v>
@@ -13691,36 +13694,36 @@
         <v>1490</v>
       </c>
       <c r="B998" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B999" t="s">
         <v>1492</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1000" t="s">
         <v>1494</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1001" t="s">
         <v>1496</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1002" t="s">
         <v>1498</v>
@@ -13747,20 +13750,20 @@
         <v>1501</v>
       </c>
       <c r="B1005" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1006" t="s">
         <v>1503</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1007" t="s">
         <v>1505</v>
@@ -13795,20 +13798,20 @@
         <v>1509</v>
       </c>
       <c r="B1011" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1012" t="s">
         <v>1511</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1013" t="s">
         <v>1513</v>
@@ -13851,7 +13854,7 @@
         <v>1518</v>
       </c>
       <c r="B1018" t="s">
-        <v>453</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -13859,7 +13862,7 @@
         <v>1519</v>
       </c>
       <c r="B1019" t="s">
-        <v>1519</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -13867,28 +13870,28 @@
         <v>1520</v>
       </c>
       <c r="B1020" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1021" t="s">
         <v>1522</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1022" t="s">
         <v>1524</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1023" t="s">
         <v>1526</v>
@@ -13899,12 +13902,12 @@
         <v>1527</v>
       </c>
       <c r="B1024" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1025" t="s">
         <v>1529</v>
@@ -13987,12 +13990,12 @@
         <v>1539</v>
       </c>
       <c r="B1035" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1036" t="s">
         <v>1541</v>
@@ -14003,76 +14006,76 @@
         <v>1542</v>
       </c>
       <c r="B1037" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1038" t="s">
         <v>1544</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1039" t="s">
         <v>1546</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1548</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1041" t="s">
         <v>1550</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1042" t="s">
         <v>1552</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1043" t="s">
         <v>1554</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1044" t="s">
         <v>1556</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1045" t="s">
         <v>1558</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1046" t="s">
         <v>1560</v>
@@ -14107,164 +14110,164 @@
         <v>1564</v>
       </c>
       <c r="B1050" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1566</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1568</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1570</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1572</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1574</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1576</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1057" t="s">
         <v>1578</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1058" t="s">
         <v>1580</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1059" t="s">
         <v>1582</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1060" t="s">
         <v>1584</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1061" t="s">
         <v>1586</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1588</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1590</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1592</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1594</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1596</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1067" t="s">
         <v>1598</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1068" t="s">
         <v>1600</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1069" t="s">
         <v>1602</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1070" t="s">
         <v>1604</v>
@@ -14291,12 +14294,12 @@
         <v>1607</v>
       </c>
       <c r="B1073" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1074" t="s">
         <v>1609</v>
@@ -14323,12 +14326,12 @@
         <v>1612</v>
       </c>
       <c r="B1077" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B1078" t="s">
         <v>1614</v>
@@ -14371,12 +14374,12 @@
         <v>1619</v>
       </c>
       <c r="B1083" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1084" t="s">
         <v>1621</v>
@@ -14395,28 +14398,28 @@
         <v>1623</v>
       </c>
       <c r="B1086" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1625</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1088" t="s">
         <v>1627</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1089" t="s">
         <v>1629</v>
@@ -14427,15 +14430,15 @@
         <v>1630</v>
       </c>
       <c r="B1090" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1632</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -14443,36 +14446,36 @@
         <v>1633</v>
       </c>
       <c r="B1092" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1093" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1094" t="s">
         <v>1637</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1095" t="s">
         <v>1639</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1096" t="s">
         <v>1641</v>
@@ -14491,28 +14494,28 @@
         <v>1643</v>
       </c>
       <c r="B1098" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1099" t="s">
         <v>1645</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1100" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1101" t="s">
         <v>1649</v>
@@ -14579,12 +14582,12 @@
         <v>1657</v>
       </c>
       <c r="B1109" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1110" t="s">
         <v>1659</v>
@@ -14603,76 +14606,76 @@
         <v>1661</v>
       </c>
       <c r="B1112" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1113" t="s">
         <v>1663</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1114" t="s">
         <v>1665</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1115" t="s">
         <v>1667</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1673</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1675</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1677</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1121" t="s">
         <v>1679</v>
@@ -14683,76 +14686,76 @@
         <v>1680</v>
       </c>
       <c r="B1122" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1688</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1690</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1692</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1694</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1130" t="s">
         <v>1696</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1131" t="s">
         <v>1698</v>
@@ -14795,20 +14798,20 @@
         <v>1703</v>
       </c>
       <c r="B1136" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1137" t="s">
         <v>1705</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1138" t="s">
         <v>1707</v>
@@ -14843,76 +14846,76 @@
         <v>1711</v>
       </c>
       <c r="B1142" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1713</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1715</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1717</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1719</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1721</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1723</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1151" t="s">
         <v>1729</v>
@@ -14923,36 +14926,36 @@
         <v>1730</v>
       </c>
       <c r="B1152" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1732</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1734</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1155" t="s">
         <v>1736</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1156" t="s">
         <v>1738</v>
@@ -15027,12 +15030,12 @@
         <v>1747</v>
       </c>
       <c r="B1165" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1166" t="s">
         <v>1749</v>
@@ -15075,12 +15078,12 @@
         <v>1754</v>
       </c>
       <c r="B1171" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1172" t="s">
         <v>1756</v>
@@ -15091,28 +15094,28 @@
         <v>1757</v>
       </c>
       <c r="B1173" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1174" t="s">
         <v>1759</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1175" t="s">
         <v>1761</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B1176" t="s">
         <v>1763</v>
@@ -15131,7 +15134,7 @@
         <v>1765</v>
       </c>
       <c r="B1178" t="s">
-        <v>700</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -15139,7 +15142,7 @@
         <v>1766</v>
       </c>
       <c r="B1179" t="s">
-        <v>1766</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -15155,12 +15158,12 @@
         <v>1768</v>
       </c>
       <c r="B1181" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1182" t="s">
         <v>1770</v>
@@ -15179,27 +15182,35 @@
         <v>1772</v>
       </c>
       <c r="B1184" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1185" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1186" t="s">
         <v>1776</v>
       </c>
-      <c r="B1186" t="s">
+    </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
         <v>1777</v>
       </c>
+      <c r="B1187" t="s">
+        <v>1778</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/fr/headTags.xlsx
+++ b/lang/fr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1780">
   <si>
     <t>en</t>
   </si>
@@ -2704,2605 +2704,2608 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (PNJ)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Animaux)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pierre de refonte)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sac)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Poisson trophée)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Terre des lustrés)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Âge de glace</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Ice Cream (Crème glacée)</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Icônes (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icônes (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Icônes (Autres)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Icônes (fond blanc)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identité V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Incroyables</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Blessures</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Insecte</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak et Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Bocal</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Bijoux</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Voyage</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Abat-jour</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Paysage</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lanterne</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa : Le château dans le ciel</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>League of Legends (La Ligue des légendes)</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon légendaire</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Bibliothèque de Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Le Roi Lion</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>La Petite Sirène</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Petits cauchemars</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>La petite boutique des horreurs</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>La Petite Sorcière Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Le Seigneur des Anneaux</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Love Live !</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Créature amoureuse</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Personne amoureuse</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Père fou</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Maquillage</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Mary et la fleur de la sorcière</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascotte</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Masque (complet)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Masque (fonctionnel)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Masque (santé)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Masque (mob Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Maître de l'univers</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Symbole mathématique</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Repas</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Viande</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Médiéval</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Taverne médiévale</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casque de guerre médiéval</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Acteurs de Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Métal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Équipement militaire</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft poisson d'avril</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Mineur</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Démineur</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculous : Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Journal du futur)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>La servante dragon de Mlle Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casque Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Argent</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Le vol d'argent</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Moniteur</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Les monts de la pagaille</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Lavage de bouche</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>M. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Drones meurtriers</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Champignon</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Champignon (Biome)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musique</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Moustache</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Mon ami le cerf Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Mon Petit Poney</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Mon voisin Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Mes monstres chantants</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä de la vallée du vent</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (inspiré)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Néant (vanille)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Créature neutre</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Personne neutre</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Le Nouvel An</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>NieR : Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Nuit dans les bois</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Cauchemar avant Noël</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mythologie nordique</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Les retombées nucléaires</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Trône nucléaire</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Noix</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Océan</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Officier Cap</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy et les cafards</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Vieux</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organes et parties du corps</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Autres coiffures</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Autre illumination</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Autre créature mystique</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Bloc de la couche extérieure</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Seigneur Suprême</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Visage peint</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspiré)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Pâtisseries et sucreries</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Jour de paie</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingouin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tableau périodique des éléments</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Équipement pour animaux de compagnie</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Cochon</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Panthère rose</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky et le cerveau</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Pirates des Caraïbes</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planète</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Génération 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Objets Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Dresseur Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Ours polaire</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portail</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Présent</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Princesse Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Citrouille</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Citrouille (Littré)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Point de ponctuation</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Lapin</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Chemin de fer</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Monde de la pluie</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon à forme régionale</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Ruban</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick et Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Risque de pluie</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rival de l'éther</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Robin des Bois</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Rongeur</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entité rotative</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Coiffure royale</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy : Une Grande Aventure</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Triste créature</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Triste personne</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Autre)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga de Tanya la maléfique</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Casque de samouraï</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Satisfaisant</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Scie</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Foulard</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>La mer des voleurs</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Seafarer (L'homme de la mer)</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Les sept péchés capitaux</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>L'ombre du colosse</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Les ombres du Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Mouton</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon brillant</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Expédition</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Squelette</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Squelette (Vanille)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Créature sceptique</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Personne sceptique</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Créature endormie</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Personne endormie</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vanille)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Rancher de bave</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Schtroumpfs</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Combat de neige</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Sculpture de neige</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Blanche-Neige et les sept nains</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Chansons de guerre</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic le hérisson</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Chevalier de l'âme</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Voyage dans l'espace</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spirouette</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion (Le manoir de la peur)</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Le printemps à la vie</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Jeu du calmar</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>La fête de la Saint-Patrick</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Star contre les forces du mal</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>La guerre des étoiles</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Casque Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Casque de soldat de la guerre des étoiles</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon de départ</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Papeterie</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Storage (autre)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Surnaturel</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Créature surprise</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Personne surprise</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Marais</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>La fois où je me suis réincarné en Slime</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Les Aventures de Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>L'incroyable cirque numérique</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>L'incroyable monde de Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>L'attachement d'Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Les Garçons</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Le retour du chat</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>La Conjuration</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>L'âge du cuivre</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Le nouveau groove de l'empereur</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Les Pierrafeu</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>La Mouche</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>L'éveil du jardin</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Le bon dinosaure</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Le Grand Détective des Souris</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Les sinistres aventures de Billy et Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Le Bossu de Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Le Géant de Fer</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Le Dernier Gardien</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Le Dernier d'entre nous</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>La Légende de Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Le Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>La Maison de la Chouette</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>La maison des hiboux</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>La princesse et la grenouille</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Le Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>La route de l'Eldorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Massacre à la tronçonneuse</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Les Trois Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Les dossiers Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Ces nuits-là chez Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom et Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Projet Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Trafic</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Feu de circulation</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Panneau de signalisation</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformateurs</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Tête transparente</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Poubelle</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Trésor</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Planète Trésor</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Tortue</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Forêt du crépuscule</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Pays des merveilles tordues</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V pour Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanille (supprimé)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Bloc de vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Nourriture Vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Casque Vanille</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanille Objet</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Mob Vanille</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Chasseurs de voûtes</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Végétal</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Véhicule</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Villageois</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Villageois (désert)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Villageois (Jungle)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Villageois (Plaines)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Villageois (Savane)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Villageois (Toundra enneigée)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Villageois (Marais)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Villageois (Taïga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtuel</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace et Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>La guerre des mondes</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Nous, les ours</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Nous sommes heureux</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Météo</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Bienvenue à la maison</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Qui est-ce ?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Mise à jour sauvage</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Les ailes du feu</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winnie l'ourson</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Hiver</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World (Monde merveilleux)</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Laine</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Casque de sécurité</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Jeune</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Signe du Zodiaque</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vanille)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Zootopie</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (PNJ)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Animaux)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pierre de refonte)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sac)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Poisson trophée)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Terre des lustrés)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Âge de glace</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Ice Cream (Crème glacée)</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Icônes (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icônes (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Icônes (Autres)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Icônes (fond blanc)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identité V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Incroyables</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Blessures</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Insecte</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak et Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Bocal</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Bijoux</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Voyage</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Abat-jour</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Paysage</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lanterne</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa : Le château dans le ciel</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>League of Legends (La Ligue des légendes)</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon légendaire</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Bibliothèque de Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Le Roi Lion</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>La Petite Sirène</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Petits cauchemars</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>La petite boutique des horreurs</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>La Petite Sorcière Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Le Seigneur des Anneaux</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Love Live !</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Créature amoureuse</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Personne amoureuse</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Père fou</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Maquillage</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Homme</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Mary et la fleur de la sorcière</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascotte</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Masque (complet)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Masque (fonctionnel)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Masque (santé)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Masque (mob Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Maître de l'univers</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Symbole mathématique</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Repas</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Viande</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Médiéval</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Taverne médiévale</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casque de guerre médiéval</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Acteurs de Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Métal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Équipement militaire</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft poisson d'avril</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Mineur</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Démineur</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculous : Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Journal du futur)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>La servante dragon de Mlle Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casque Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Argent</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Le vol d'argent</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Moniteur</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Les monts de la pagaille</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Lavage de bouche</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>M. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Drones meurtriers</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Champignon</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Champignon (Biome)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Musique</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Moustache</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Mon ami le cerf Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Mon Petit Poney</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Mon voisin Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Mes monstres chantants</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä de la vallée du vent</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (inspiré)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Néant (vanille)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Créature neutre</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Personne neutre</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Le Nouvel An</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>NieR : Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Nuit dans les bois</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Cauchemar avant Noël</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mythologie nordique</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Les retombées nucléaires</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Trône nucléaire</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Numéro</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Noix</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Océan</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Officier Cap</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy et les cafards</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Vieux</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organes et parties du corps</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Autres coiffures</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Autre illumination</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Autre créature mystique</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Bloc de la couche extérieure</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Seigneur Suprême</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Visage peint</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspiré)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Pâtisseries et sucreries</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Jour de paie</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingouin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tableau périodique des éléments</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Équipement pour animaux de compagnie</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Cochon</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Panthère rose</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky et le cerveau</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Pirates des Caraïbes</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planète</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Génération 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Objets Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Dresseur Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Ours polaire</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portail</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Présent</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Princesse Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Citrouille</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Citrouille (Littré)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Point de ponctuation</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Lapin</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Chemin de fer</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Monde de la pluie</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon à forme régionale</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Ruban</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick et Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Risque de pluie</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rival de l'éther</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Robin des Bois</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Rongeur</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entité rotative</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Coiffure royale</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy : Une Grande Aventure</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Triste créature</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Triste personne</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Autre)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga de Tanya la maléfique</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Casque de samouraï</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Satisfaisant</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Scie</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Foulard</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>La mer des voleurs</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Seafarer (L'homme de la mer)</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Les sept péchés capitaux</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>L'ombre du colosse</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Les ombres du Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Mouton</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon brillant</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Expédition</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Squelette</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Squelette (Vanille)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Créature sceptique</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Personne sceptique</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Créature endormie</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Personne endormie</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vanille)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Rancher de bave</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Schtroumpfs</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Combat de neige</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Sculpture de neige</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Blanche-Neige et les sept nains</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Chansons de guerre</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic le hérisson</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Chevalier de l'âme</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Voyage dans l'espace</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spirouette</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion (Le manoir de la peur)</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Le printemps à la vie</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Jeu du calmar</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>La fête de la Saint-Patrick</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Star contre les forces du mal</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>La guerre des étoiles</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Casque Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Casque de soldat de la guerre des étoiles</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon de départ</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Papeterie</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Storage (autre)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Surnaturel</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Créature surprise</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Personne surprise</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Marais</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>La fois où je me suis réincarné en Slime</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Les Aventures de Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>L'incroyable cirque numérique</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>L'incroyable monde de Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>L'attachement d'Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Les Garçons</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Le retour du chat</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>La Conjuration</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>L'âge du cuivre</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Le nouveau groove de l'empereur</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Les Pierrafeu</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>La Mouche</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>L'éveil du jardin</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Le bon dinosaure</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Le Grand Détective des Souris</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Les sinistres aventures de Billy et Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Le Bossu de Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Le Géant de Fer</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Le Dernier Gardien</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>Le Dernier d'entre nous</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>La Légende de Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Le Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>La Maison de la Chouette</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>La maison des hiboux</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>La princesse et la grenouille</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Le Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>La route de l'Eldorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Massacre à la tronçonneuse</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Les Trois Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Les dossiers Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Ces nuits-là chez Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom et Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Projet Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Trafic</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Feu de circulation</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Panneau de signalisation</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformateurs</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Tête transparente</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Poubelle</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Trésor</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Planète Trésor</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Tortue</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Forêt du crépuscule</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Pays des merveilles tordues</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V pour Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanille (supprimé)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Bloc de vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Nourriture Vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Casque Vanille</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanille Objet</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Mob Vanille</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Chasseurs de voûtes</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Végétal</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Véhicule</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Villageois</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Villageois (désert)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Villageois (Jungle)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Villageois (Plaines)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Villageois (Savane)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Villageois (Toundra enneigée)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Villageois (Marais)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Villageois (Taïga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtuel</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace et Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>La guerre des mondes</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Nous, les ours</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Nous sommes heureux</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Météo</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Bienvenue à la maison</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Qui est-ce ?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Mise à jour sauvage</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Les ailes du feu</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winnie l'ourson</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World (Monde merveilleux)</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Bois</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Laine</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Casque de sécurité</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Jeune</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Signe du Zodiaque</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vanille)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Zootopie</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5700,7 +5703,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15118,12 +15121,12 @@
         <v>1762</v>
       </c>
       <c r="B1176" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1177" t="s">
         <v>1764</v>
@@ -15142,7 +15145,7 @@
         <v>1766</v>
       </c>
       <c r="B1179" t="s">
-        <v>700</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -15150,7 +15153,7 @@
         <v>1767</v>
       </c>
       <c r="B1180" t="s">
-        <v>1767</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -15166,12 +15169,12 @@
         <v>1769</v>
       </c>
       <c r="B1182" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1183" t="s">
         <v>1771</v>
@@ -15190,27 +15193,35 @@
         <v>1773</v>
       </c>
       <c r="B1185" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1186" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1187" t="s">
         <v>1777</v>
       </c>
-      <c r="B1187" t="s">
+    </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
         <v>1778</v>
       </c>
+      <c r="B1188" t="s">
+        <v>1779</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
